--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1D117-FC31-4BF2-BB9B-102EFD493693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC7FFB-3EA8-4E5A-AE0D-3B1BD9FE2D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Fashion" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="727">
   <si>
     <t>Fashion Universe</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Q225</t>
   </si>
   <si>
-    <t>FQ125</t>
-  </si>
-  <si>
     <t>Q323</t>
   </si>
   <si>
@@ -2310,6 +2307,12 @@
   </si>
   <si>
     <t>BGFV</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>FQ425</t>
   </si>
 </sst>
 </file>
@@ -3052,26 +3055,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>74</v>
+            <v>81.58</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>17244.645499999999</v>
+            <v>16943.36219226</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>7305.2</v>
+            <v>1057</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>7311.7</v>
+            <v>2697</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3214,22 +3217,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>28.83</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>14964.108259769999</v>
+            <v>21051.474004000003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>345.4</v>
+            <v>422.1</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>927.3</v>
+            <v>928.6</v>
           </cell>
         </row>
       </sheetData>
@@ -3409,12 +3412,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>25.7</v>
+            <v>12.26</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>10012.0355062</v>
+            <v>4776.5573000000004</v>
           </cell>
         </row>
         <row r="5">
@@ -3428,7 +3431,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3889,22 +3892,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>124.5</v>
+            <v>133.4</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>141681</v>
+            <v>151008.80000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>5335</v>
+            <v>4255</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>2866</v>
+            <v>2867</v>
           </cell>
         </row>
       </sheetData>
@@ -3969,22 +3972,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>0.83069999999999999</v>
+            <v>0.86919999999999997</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>4305.6011699999999</v>
+            <v>4483.3335999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>946.3</v>
+            <v>731</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>905.6</v>
+            <v>679</v>
           </cell>
         </row>
       </sheetData>
@@ -5182,26 +5185,26 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>45660</v>
+            <v>46660</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>14003266.231079999</v>
+            <v>14313793.760159999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>1198840</v>
+            <v>977330</v>
           </cell>
         </row>
         <row r="7">
           <cell r="J7">
-            <v>211168</v>
+            <v>333913</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5338,22 +5341,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>15.24</v>
+            <v>12.42</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1474.0878265200001</v>
+            <v>1202.50944252</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>68.8</v>
+            <v>333.4</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>495.5</v>
+            <v>412</v>
           </cell>
         </row>
       </sheetData>
@@ -5611,12 +5614,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="K2">
-            <v>203</v>
+            <v>218.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="K4">
-            <v>81919.418195999999</v>
+            <v>88227.451415500007</v>
           </cell>
         </row>
         <row r="5">
@@ -5630,7 +5633,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5788,7 +5791,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5847,26 +5850,26 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="H3">
-            <v>126.5</v>
+            <v>151.5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>41240.771000000001</v>
+            <v>49816.452553499999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>4654.3159999999998</v>
+            <v>4730.7439999999997</v>
           </cell>
         </row>
         <row r="7">
           <cell r="H7">
-            <v>4886.0550000000003</v>
+            <v>2214.8109999999997</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6191,11 +6194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C154" sqref="C154:D154"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,7 +6239,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E2"/>
       <c r="I2"/>
@@ -6274,10 +6277,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>452</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>453</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>148</v>
@@ -6331,13 +6334,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC3" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>444</v>
-      </c>
       <c r="AD3" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -6350,24 +6353,24 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1800824.5761521079</v>
+        <v>1827576.017716842</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>12215.2603452</v>
+        <v>14021.293845200002</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1813039.8364973085</v>
+        <v>1841597.3115620425</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6407,7 +6410,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -6415,15 +6418,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23387.332157819583</v>
+        <v>23734.753476842103</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>158.63974474285715</v>
+        <v>182.09472526233768</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23545.971902562447</v>
+        <v>23916.848202104447</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -6529,7 +6532,7 @@
         <v>273454.1285476</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J6" s="15">
         <v>45830</v>
@@ -6631,7 +6634,7 @@
         <v>243433.008</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J7" s="15">
         <v>45838</v>
@@ -6711,7 +6714,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -6733,7 +6736,7 @@
         <v>133089.01276188961</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J8" s="15">
         <v>45812</v>
@@ -6817,25 +6820,25 @@
       </c>
       <c r="E9" s="7">
         <f>+[4]Main!$I$3</f>
-        <v>124.5</v>
+        <v>133.4</v>
       </c>
       <c r="F9" s="16">
         <f>+[4]Main!$I$5</f>
-        <v>141681</v>
+        <v>151008.80000000002</v>
       </c>
       <c r="G9" s="16">
         <f>+[4]Main!$I$7-[4]Main!$I$6</f>
-        <v>-2469</v>
+        <v>-1388</v>
       </c>
       <c r="H9" s="16">
         <f>F9+G9</f>
-        <v>139212</v>
+        <v>149620.80000000002</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>428</v>
+        <v>725</v>
       </c>
       <c r="J9" s="15">
-        <v>45798</v>
+        <v>45889</v>
       </c>
       <c r="K9" s="7">
         <v>54217</v>
@@ -6924,7 +6927,7 @@
         <v>131273.19750480002</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J10" s="15">
         <v>45500</v>
@@ -6998,7 +7001,7 @@
         <v>81784.029999999984</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J11" s="15">
         <v>45834</v>
@@ -7079,25 +7082,25 @@
       </c>
       <c r="E12" s="17">
         <f>+[7]Main!$J$3</f>
-        <v>45660</v>
+        <v>46660</v>
       </c>
       <c r="F12" s="16">
         <f>+[7]Main!$J$5*FX!C5</f>
-        <v>88220.57725580399</v>
+        <v>90176.900689007991</v>
       </c>
       <c r="G12" s="16">
         <f>+([7]Main!$J$7-[7]Main!$J$6)*FX!C5</f>
-        <v>-6222.3335999999999</v>
+        <v>-4053.5271000000002</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="1"/>
-        <v>81998.243655803992</v>
+        <v>86123.373589007984</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="J12" s="15">
-        <v>45757</v>
+        <v>45848</v>
       </c>
       <c r="K12" s="16">
         <f>2301122*FX!C5</f>
@@ -7143,11 +7146,11 @@
       </c>
       <c r="E13" s="7">
         <f>+[8]Main!$K$2</f>
-        <v>203</v>
+        <v>218.5</v>
       </c>
       <c r="F13" s="16">
         <f>+[8]Main!$K$4</f>
-        <v>81919.418195999999</v>
+        <v>88227.451415500007</v>
       </c>
       <c r="G13" s="16">
         <f>+[8]Main!$K$6-[8]Main!$K$5</f>
@@ -7155,13 +7158,13 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" si="1"/>
-        <v>84454.794196000003</v>
+        <v>90762.827415500011</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J13" s="15">
-        <v>45773</v>
+        <v>45853</v>
       </c>
       <c r="K13" s="16">
         <v>8815.7999999999993</v>
@@ -7217,25 +7220,25 @@
       </c>
       <c r="E14" s="7">
         <f>+[9]Main!$H$3</f>
-        <v>126.5</v>
+        <v>151.5</v>
       </c>
       <c r="F14" s="16">
         <f>+[9]Main!$H$5</f>
-        <v>41240.771000000001</v>
+        <v>49816.452553499999</v>
       </c>
       <c r="G14" s="16">
         <f>+[9]Main!$H$7-[9]Main!$H$6</f>
-        <v>231.73900000000049</v>
+        <v>-2515.933</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="1"/>
-        <v>41472.51</v>
+        <v>47300.519553500002</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>340</v>
       </c>
       <c r="J14" s="15">
-        <v>45720</v>
+        <v>45799</v>
       </c>
       <c r="K14" s="16">
         <v>20376.900000000001</v>
@@ -7272,7 +7275,7 @@
         <v>1982</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -7306,7 +7309,7 @@
         <v>35335.117280000006</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J15" s="15">
         <v>45812</v>
@@ -7346,7 +7349,7 @@
         <v>1998</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -7380,10 +7383,10 @@
         <v>37485.084252511995</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J16" s="15">
-        <v>45776</v>
+        <v>45868</v>
       </c>
       <c r="K16" s="16">
         <f>21427*FX!C3</f>
@@ -7435,7 +7438,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
@@ -7457,7 +7460,7 @@
         <v>33126.560353120003</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J17" s="15">
         <v>45867</v>
@@ -7534,10 +7537,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E18" s="7">
         <f>+[13]Main!$H$2</f>
@@ -7556,7 +7559,7 @@
         <v>30924.615520820003</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J18" s="21">
         <v>45896</v>
@@ -7587,7 +7590,7 @@
         <v>1991</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -7679,7 +7682,7 @@
         <v>25099.003752499997</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J20" s="15">
         <v>45834</v>
@@ -7725,7 +7728,7 @@
         <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="7">
         <f>+[16]Main!$H$2</f>
@@ -7744,9 +7747,11 @@
         <v>14856.379907199998</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="J21" s="15"/>
+        <v>439</v>
+      </c>
+      <c r="J21" s="15">
+        <v>45865</v>
+      </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="18"/>
@@ -7775,13 +7780,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>451</v>
-      </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="7">
         <f>+[17]Main!$I$2</f>
@@ -7800,7 +7805,7 @@
         <v>20418.151071830049</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J22" s="15">
         <v>45772</v>
@@ -7829,10 +7834,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="7">
         <f>+[18]Main!$H$2</f>
@@ -7851,10 +7856,10 @@
         <v>19231.585069424</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J23" s="15">
-        <v>45785</v>
+        <v>45861</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -7875,7 +7880,7 @@
         <v>1952</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -7884,10 +7889,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -7942,35 +7947,35 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="7">
         <f>+[20]Main!$J$2</f>
-        <v>74</v>
+        <v>81.58</v>
       </c>
       <c r="F25" s="16">
         <f>+[20]Main!$J$4</f>
-        <v>17244.645499999999</v>
+        <v>16943.36219226</v>
       </c>
       <c r="G25" s="16">
         <f>+[20]Main!$J$6-[20]Main!$J$5</f>
-        <v>6.5</v>
+        <v>1640</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="1"/>
-        <v>17251.145499999999</v>
+        <v>18583.36219226</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="J25" s="15">
-        <v>45785</v>
+        <v>45883</v>
       </c>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
@@ -7991,7 +7996,7 @@
         <v>2000</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -8003,7 +8008,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
@@ -8025,10 +8030,10 @@
         <v>15138.552613350599</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J26" s="15">
-        <v>45786</v>
+        <v>45882</v>
       </c>
       <c r="K26" s="16"/>
       <c r="M26" s="16"/>
@@ -8050,7 +8055,7 @@
         <v>1949</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -8059,13 +8064,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="7">
         <f>+[22]Main!$I$2</f>
@@ -8121,7 +8126,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="7">
         <f>+[23]Main!$H$2</f>
@@ -8140,9 +8145,11 @@
         <v>14166.774425059202</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="J28" s="15"/>
+        <v>439</v>
+      </c>
+      <c r="J28" s="15">
+        <v>45881</v>
+      </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="Q28" s="18"/>
@@ -8171,35 +8178,35 @@
         <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="7">
         <f>+[24]Main!$J$2</f>
-        <v>28.83</v>
+        <v>38</v>
       </c>
       <c r="F29" s="16">
         <f>+[24]Main!$J$4</f>
-        <v>14964.108259769999</v>
+        <v>21051.474004000003</v>
       </c>
       <c r="G29" s="16">
         <f>+[24]Main!$J$6-[24]Main!$J$5</f>
-        <v>581.9</v>
+        <v>506.5</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="1"/>
-        <v>15546.008259769998</v>
+        <v>21557.974004000003</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="J29" s="15">
-        <v>45797</v>
+        <v>45888</v>
       </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
@@ -8218,7 +8225,7 @@
         <v>1950</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -8230,10 +8237,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E30" s="7">
         <f>+[25]Main!$J$2</f>
@@ -8288,7 +8295,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -8310,7 +8317,7 @@
         <v>16261.9980925</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J31" s="15">
         <v>45798</v>
@@ -8378,13 +8385,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E32" s="7">
         <f>+[27]Main!$K$2</f>
@@ -8403,10 +8410,10 @@
         <v>11792.5579198</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K32" s="16"/>
       <c r="M32" s="16"/>
@@ -8428,7 +8435,7 @@
         <v>2004</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -8440,7 +8447,7 @@
         <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -8462,9 +8469,11 @@
         <v>7791.6072000000004</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="J33" s="15"/>
+        <v>439</v>
+      </c>
+      <c r="J33" s="15">
+        <v>45875</v>
+      </c>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
@@ -8482,7 +8491,7 @@
         <v>2008</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -8491,7 +8500,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -8501,11 +8510,11 @@
       </c>
       <c r="E34" s="7">
         <f>+[29]Main!$H$2</f>
-        <v>25.7</v>
+        <v>12.26</v>
       </c>
       <c r="F34" s="16">
         <f>+[29]Main!$H$4</f>
-        <v>10012.0355062</v>
+        <v>4776.5573000000004</v>
       </c>
       <c r="G34" s="16">
         <f>+[29]Main!$H$6-[29]Main!$H$5</f>
@@ -8513,13 +8522,13 @@
       </c>
       <c r="H34" s="16">
         <f>+G34+F34</f>
-        <v>13290.5345062</v>
+        <v>8055.0563000000002</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>383</v>
+        <v>726</v>
       </c>
       <c r="J34" s="15">
-        <v>45796</v>
+        <v>45874</v>
       </c>
       <c r="K34" s="16"/>
       <c r="M34" s="16"/>
@@ -8541,7 +8550,7 @@
         <v>1899</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -8600,7 +8609,7 @@
         <v>1774</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -8634,7 +8643,7 @@
         <v>7584.3403727999994</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J36" s="15">
         <v>45806</v>
@@ -8708,7 +8717,7 @@
         <v>8279.7465584000001</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J37" s="15">
         <v>45771</v>
@@ -8733,7 +8742,7 @@
         <v>1992</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -8742,13 +8751,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="7">
         <f>+[33]Main!$J$2</f>
@@ -8767,7 +8776,7 @@
         <v>7934.8692105279997</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J38" s="15">
         <v>45778</v>
@@ -8792,7 +8801,7 @@
         <v>1978</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -8826,7 +8835,7 @@
         <v>9772.0522000000001</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J39" s="15">
         <v>45707</v>
@@ -8851,7 +8860,7 @@
         <v>1984</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8885,7 +8894,7 @@
         <v>6295.4812351999999</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J40" s="15">
         <v>45749</v>
@@ -8934,13 +8943,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="D41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E41" s="7">
         <f>+[36]Main!$I$2</f>
@@ -8959,7 +8968,7 @@
         <v>7503.4873500000003</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K41" s="16"/>
       <c r="M41" s="16"/>
@@ -8991,7 +9000,7 @@
         <v>600398</v>
       </c>
       <c r="D42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E42" s="7">
         <f>+[37]Main!$J$2</f>
@@ -9039,13 +9048,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="7">
         <f>+[38]Main!$H$2</f>
@@ -9064,7 +9073,7 @@
         <v>5144.6567062000004</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K43" s="16"/>
       <c r="M43" s="16"/>
@@ -9115,7 +9124,7 @@
         <v>7552.5421999999999</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J44" s="15">
         <v>45869</v>
@@ -9140,7 +9149,7 @@
         <v>2002</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -9149,13 +9158,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" t="s">
         <v>327</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" t="s">
-        <v>328</v>
       </c>
       <c r="E45" s="7">
         <f>+[40]Main!$I$2</f>
@@ -9174,7 +9183,7 @@
         <v>5904.7703999999994</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J45" s="15">
         <v>45804</v>
@@ -9208,32 +9217,32 @@
         <v>41</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E46" s="7">
         <f>+[41]Main!$I$2</f>
-        <v>0.83069999999999999</v>
+        <v>0.86919999999999997</v>
       </c>
       <c r="F46" s="16">
         <f>+[41]Main!$I$4*FX!C8</f>
-        <v>5338.9454507999999</v>
+        <v>5559.3336639999998</v>
       </c>
       <c r="G46" s="16">
         <f>+([41]Main!$I$6-[41]Main!$I$5)*FX!C8</f>
-        <v>-50.467999999999918</v>
+        <v>-64.48</v>
       </c>
       <c r="H46" s="16">
         <f>F46+G46</f>
-        <v>5288.4774508</v>
+        <v>5494.8536640000002</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="J46" s="15">
         <v>45807</v>
@@ -9257,7 +9266,7 @@
         <v>1981</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -9266,10 +9275,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D47" t="s">
         <v>107</v>
@@ -9291,7 +9300,7 @@
         <v>5335.7607539999999</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K47" s="16"/>
       <c r="M47" s="16"/>
@@ -9317,13 +9326,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E48" s="7">
         <f>+[43]Main!$H$2</f>
@@ -9376,10 +9385,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D49" t="s">
         <v>463</v>
-      </c>
-      <c r="D49" t="s">
-        <v>464</v>
       </c>
       <c r="E49" s="7">
         <f>+[44]Main!$I$2</f>
@@ -9398,7 +9407,7 @@
         <v>6839.1686444620009</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K49" s="16"/>
       <c r="M49" s="16"/>
@@ -9424,10 +9433,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -9449,7 +9458,7 @@
         <v>4248.0838848999992</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J50" s="15">
         <v>45797</v>
@@ -9481,7 +9490,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s">
         <v>82</v>
@@ -9503,7 +9512,7 @@
         <v>4851.1706880000002</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J51" s="15">
         <v>45869</v>
@@ -9528,7 +9537,7 @@
         <v>1948</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -9540,10 +9549,10 @@
         <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E52" s="7">
         <f>+[47]Main!$I$2</f>
@@ -9562,7 +9571,7 @@
         <v>4617.6524520000003</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J52" s="15">
         <v>45833</v>
@@ -9621,7 +9630,7 @@
         <v>3720.1530435</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J53" s="15">
         <v>45805</v>
@@ -9695,7 +9704,7 @@
         <v>3878.4726000000001</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J54" s="15">
         <v>45771</v>
@@ -9754,7 +9763,7 @@
         <v>4828.6230819900011</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J55" s="15">
         <v>45747</v>
@@ -9791,7 +9800,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D56" t="s">
         <v>125</v>
@@ -9813,7 +9822,7 @@
         <v>3556.0594297651505</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J56" s="15">
         <v>45812</v>
@@ -9838,7 +9847,7 @@
         <v>1985</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -9850,10 +9859,10 @@
         <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" s="7">
         <f>+[52]Main!$I$2</f>
@@ -9901,10 +9910,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -9926,7 +9935,7 @@
         <v>4041.6143400000001</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J58" s="15">
         <v>45791</v>
@@ -9951,7 +9960,7 @@
         <v>1978</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -9960,10 +9969,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -9985,7 +9994,7 @@
         <v>4493.6961148800001</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="16"/>
@@ -10008,7 +10017,7 @@
         <v>2019</v>
       </c>
       <c r="AE59" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -10017,10 +10026,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -10067,10 +10076,10 @@
         <v>50</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E61" s="7">
         <f>+[56]Main!$J$2</f>
@@ -10089,7 +10098,7 @@
         <v>4047.9972149999999</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K61" s="16"/>
       <c r="M61" s="16"/>
@@ -10115,10 +10124,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -10140,7 +10149,7 @@
         <v>3688.6548861900005</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K62" s="16"/>
       <c r="M62" s="16"/>
@@ -10169,7 +10178,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
@@ -10191,7 +10200,7 @@
         <v>3043.9552000000008</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J63" s="15">
         <v>45874</v>
@@ -10245,7 +10254,7 @@
         <v>2682.3947600000001</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J64" s="15">
         <v>45789</v>
@@ -10274,10 +10283,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -10299,7 +10308,7 @@
         <v>2596.4655860499997</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J65" s="15">
         <v>45723</v>
@@ -10328,13 +10337,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E66" s="7">
         <f>+[61]Main!$I$2</f>
@@ -10353,7 +10362,7 @@
         <v>3003.3278194628492</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K66" s="16"/>
       <c r="M66" s="16"/>
@@ -10379,10 +10388,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -10404,7 +10413,7 @@
         <v>4007.9694340999999</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J67" s="15">
         <v>45722</v>
@@ -10460,7 +10469,7 @@
         <v>2555.9634897599999</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K68" s="16"/>
       <c r="M68" s="16"/>
@@ -10486,13 +10495,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="D69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E69" s="7">
         <f>+[64]Main!$I$2</f>
@@ -10511,7 +10520,7 @@
         <v>3718.1945879500004</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J69" s="15">
         <v>45805</v>
@@ -10536,7 +10545,7 @@
         <v>1981</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -10551,7 +10560,7 @@
         <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E70" s="7">
         <f>+[65]Main!$J$2</f>
@@ -10599,13 +10608,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E71" s="7">
         <f>+[66]Main!$J$2</f>
@@ -10624,7 +10633,7 @@
         <v>2212.7803711287997</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J71" s="15">
         <v>45776</v>
@@ -11030,7 +11039,7 @@
         <v>4026.2967514399998</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K83" s="16"/>
       <c r="M83" s="16"/>
@@ -11120,13 +11129,13 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" t="s">
         <v>158</v>
-      </c>
-      <c r="D86" t="s">
-        <v>159</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -11155,13 +11164,13 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" t="s">
         <v>161</v>
-      </c>
-      <c r="D87" t="s">
-        <v>162</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -11190,13 +11199,13 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D88" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -11225,10 +11234,10 @@
         <v>84</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -11250,7 +11259,7 @@
         <v>1576.7592650000001</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K89" s="16"/>
       <c r="M89" s="16"/>
@@ -11276,10 +11285,10 @@
         <v>85</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -11301,7 +11310,7 @@
         <v>1610.0571035199996</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K90" s="16"/>
       <c r="M90" s="16"/>
@@ -11327,10 +11336,10 @@
         <v>86</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -11352,7 +11361,7 @@
         <v>1504.9194085300001</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K91" s="16"/>
       <c r="M91" s="16"/>
@@ -11383,13 +11392,13 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" t="s">
         <v>174</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" t="s">
-        <v>175</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -11418,13 +11427,13 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -11453,10 +11462,10 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
@@ -11488,10 +11497,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
@@ -11513,7 +11522,7 @@
         <v>1307.5021584900001</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K95" s="16"/>
       <c r="M95" s="16"/>
@@ -11539,10 +11548,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -11564,7 +11573,7 @@
         <v>990.49582505000001</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K96" s="16"/>
       <c r="M96" s="16"/>
@@ -11590,36 +11599,34 @@
         <v>92</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
         <v>107</v>
       </c>
       <c r="E97" s="7">
         <f>+[73]Main!$J$2</f>
-        <v>15.24</v>
+        <v>12.42</v>
       </c>
       <c r="F97" s="16">
         <f>+[73]Main!$J$4*FX!C13</f>
-        <v>1017.1206002988</v>
+        <v>829.73151533879991</v>
       </c>
       <c r="G97" s="16">
         <f>+([73]Main!$J$6-[73]Main!$J$5)*FX!C13</f>
-        <v>294.42299999999994</v>
+        <v>54.234000000000009</v>
       </c>
       <c r="H97" s="16">
         <f>+F97+G97</f>
-        <v>1311.5436002987999</v>
+        <v>883.96551533879995</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="J97" s="15">
-        <v>45793</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="J97" s="15"/>
       <c r="K97" s="16"/>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
@@ -11644,13 +11651,13 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" t="s">
         <v>187</v>
-      </c>
-      <c r="D98" t="s">
-        <v>188</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -11679,13 +11686,13 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" t="s">
         <v>190</v>
-      </c>
-      <c r="D99" t="s">
-        <v>191</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -11714,10 +11721,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D100" t="s">
         <v>21</v>
@@ -11739,7 +11746,7 @@
         <v>500.70656488999998</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K100" s="16"/>
       <c r="M100" s="16"/>
@@ -11765,10 +11772,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
@@ -11790,7 +11797,7 @@
         <v>1117.88369158</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K101" s="16"/>
       <c r="M101" s="16"/>
@@ -11816,13 +11823,13 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -11851,13 +11858,13 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" t="s">
         <v>199</v>
-      </c>
-      <c r="D103" t="s">
-        <v>200</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -11886,13 +11893,13 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -11921,13 +11928,13 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -11956,13 +11963,13 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -11991,13 +11998,13 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -12026,10 +12033,10 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -12061,13 +12068,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -12096,10 +12103,10 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="D110" t="s">
         <v>82</v>
@@ -12131,13 +12138,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" t="s">
         <v>216</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D111" t="s">
-        <v>217</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -12166,10 +12173,10 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D112" t="s">
         <v>21</v>
@@ -12201,13 +12208,13 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" t="s">
         <v>221</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" t="s">
-        <v>222</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -12236,13 +12243,13 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" t="s">
         <v>225</v>
-      </c>
-      <c r="D114" t="s">
-        <v>226</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -12271,10 +12278,10 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D115" t="s">
         <v>109</v>
@@ -12306,13 +12313,13 @@
         <v>111</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E116" s="7">
         <f>+'[76]Main '!$F$2</f>
@@ -12351,13 +12358,13 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="D117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -12386,13 +12393,13 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -12421,13 +12428,13 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -12456,13 +12463,13 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
         <v>237</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" t="s">
-        <v>238</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -12491,13 +12498,13 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -12526,13 +12533,13 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -12561,10 +12568,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D123" t="s">
         <v>21</v>
@@ -12612,13 +12619,13 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" t="s">
         <v>247</v>
-      </c>
-      <c r="D124" t="s">
-        <v>248</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -12647,10 +12654,10 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -12682,13 +12689,13 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -12717,10 +12724,10 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
@@ -12752,13 +12759,13 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="D128" t="s">
         <v>256</v>
-      </c>
-      <c r="D128" t="s">
-        <v>257</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -12787,13 +12794,13 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -12822,10 +12829,10 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -12854,13 +12861,13 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -12889,10 +12896,10 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
@@ -12924,13 +12931,13 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="D133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -12959,10 +12966,10 @@
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
@@ -12994,10 +13001,10 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -13029,13 +13036,13 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -13064,13 +13071,13 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -13096,13 +13103,13 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -13131,10 +13138,10 @@
         <v>134</v>
       </c>
       <c r="B139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -13166,13 +13173,13 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="D140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -13201,10 +13208,10 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D141" t="s">
         <v>21</v>
@@ -13236,13 +13243,13 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -13271,10 +13278,10 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D143" t="s">
         <v>21</v>
@@ -13306,10 +13313,10 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D144" t="s">
         <v>109</v>
@@ -13341,10 +13348,10 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -13376,10 +13383,10 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D146" t="s">
         <v>21</v>
@@ -13410,10 +13417,10 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D147" t="s">
         <v>100</v>
@@ -13442,13 +13449,13 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" t="s">
         <v>296</v>
-      </c>
-      <c r="D148" t="s">
-        <v>297</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -13474,10 +13481,10 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D149" t="s">
         <v>21</v>
@@ -13506,10 +13513,10 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D150" t="s">
         <v>82</v>
@@ -13538,10 +13545,10 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D151" t="s">
         <v>21</v>
@@ -13570,10 +13577,10 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D152" t="s">
         <v>21</v>
@@ -13602,13 +13609,13 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D153" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -13634,10 +13641,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D154" t="s">
         <v>125</v>
@@ -13659,7 +13666,7 @@
         <v>285.95973709800001</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q154" s="18"/>
       <c r="R154" s="18"/>
@@ -13682,10 +13689,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D155" t="s">
         <v>21</v>
@@ -13707,7 +13714,7 @@
         <v>1627.5316492799998</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q155" s="18"/>
       <c r="R155" s="18"/>
@@ -13730,10 +13737,10 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D156" t="s">
         <v>125</v>
@@ -13762,10 +13769,10 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
+        <v>494</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="D157" t="s">
         <v>21</v>
@@ -13794,10 +13801,10 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
+        <v>496</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D158" t="s">
         <v>125</v>
@@ -13826,10 +13833,10 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
+        <v>498</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="D159" t="s">
         <v>21</v>
@@ -13858,13 +13865,13 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
+        <v>500</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>502</v>
-      </c>
       <c r="D160" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -13890,13 +13897,13 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
+        <v>502</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -13922,13 +13929,13 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
+        <v>504</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="D162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -13954,10 +13961,10 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D163" t="s">
         <v>21</v>
@@ -13986,10 +13993,10 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D164" t="s">
         <v>21</v>
@@ -14018,13 +14025,13 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -14050,13 +14057,13 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D166" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -14082,10 +14089,10 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
+        <v>513</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="D167" t="s">
         <v>21</v>
@@ -14114,13 +14121,13 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
+        <v>516</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D168" t="s">
         <v>517</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D168" t="s">
-        <v>518</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -14146,10 +14153,10 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
+        <v>518</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="D169" t="s">
         <v>21</v>
@@ -14178,10 +14185,10 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
+        <v>520</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="D170" t="s">
         <v>21</v>
@@ -14210,13 +14217,13 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
+        <v>522</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="D171" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -14242,13 +14249,13 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -14274,10 +14281,10 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
+        <v>525</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="D173" t="s">
         <v>21</v>
@@ -14306,10 +14313,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
+        <v>528</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="D174" t="s">
         <v>21</v>
@@ -14338,10 +14345,10 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
+        <v>530</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="D175" t="s">
         <v>21</v>
@@ -14370,10 +14377,10 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
+        <v>532</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="D176" t="s">
         <v>21</v>
@@ -14402,10 +14409,10 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
+        <v>534</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="D177" t="s">
         <v>21</v>
@@ -14434,13 +14441,13 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
+        <v>536</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D178" t="s">
         <v>537</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D178" t="s">
-        <v>538</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -14466,10 +14473,10 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
+        <v>539</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="D179" t="s">
         <v>21</v>
@@ -14498,10 +14505,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
@@ -14530,10 +14537,10 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D181" t="s">
         <v>21</v>
@@ -14577,7 +14584,7 @@
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B183" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
@@ -14602,13 +14609,13 @@
         <v>129</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D184" t="s">
         <v>82</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -14630,26 +14637,26 @@
         <v>2014</v>
       </c>
       <c r="AE184" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
       <c r="H185" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q185" s="18"/>
       <c r="R185" s="18"/>
@@ -14668,10 +14675,10 @@
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -14693,16 +14700,16 @@
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
+        <v>484</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="D187" t="s">
         <v>125</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -14724,7 +14731,7 @@
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -14746,7 +14753,7 @@
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -14769,7 +14776,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
@@ -14792,7 +14799,7 @@
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
@@ -14815,7 +14822,7 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
@@ -14837,7 +14844,7 @@
     </row>
     <row r="193" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -14859,7 +14866,7 @@
     </row>
     <row r="194" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
@@ -14881,7 +14888,7 @@
     </row>
     <row r="195" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C195"/>
       <c r="F195" s="16"/>
@@ -14904,7 +14911,7 @@
     </row>
     <row r="196" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
@@ -14926,7 +14933,7 @@
     </row>
     <row r="197" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -14948,7 +14955,7 @@
     </row>
     <row r="198" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -14970,7 +14977,7 @@
     </row>
     <row r="199" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
@@ -14992,7 +14999,7 @@
     </row>
     <row r="200" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -15318,7 +15325,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -15347,10 +15354,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>452</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>453</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>148</v>
@@ -15404,13 +15411,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC3" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>444</v>
-      </c>
       <c r="AD3" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -15462,13 +15469,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -15480,13 +15487,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -15498,7 +15505,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -15519,7 +15526,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
         <v>125</v>
@@ -15534,7 +15541,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -15552,13 +15559,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -15570,7 +15577,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -15594,7 +15601,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -15606,13 +15613,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
         <v>315</v>
       </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -15624,13 +15631,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -15645,7 +15652,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
@@ -15678,10 +15685,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -15696,10 +15703,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
         <v>491</v>
-      </c>
-      <c r="C19" t="s">
-        <v>492</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -15714,10 +15721,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" t="s">
         <v>495</v>
-      </c>
-      <c r="C20" t="s">
-        <v>496</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -15739,7 +15746,7 @@
         <v>14232.185028799999</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -15748,10 +15755,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D21" t="s">
         <v>125</v>
@@ -15766,10 +15773,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" t="s">
         <v>497</v>
-      </c>
-      <c r="C22" t="s">
-        <v>498</v>
       </c>
       <c r="D22" t="s">
         <v>125</v>
@@ -15784,10 +15791,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -15802,10 +15809,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>711</v>
+      </c>
+      <c r="C24" t="s">
         <v>712</v>
-      </c>
-      <c r="C24" t="s">
-        <v>713</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -15820,10 +15827,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -15838,7 +15845,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -15856,10 +15863,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" t="s">
         <v>533</v>
-      </c>
-      <c r="C27" t="s">
-        <v>534</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -15874,13 +15881,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" t="s">
         <v>716</v>
       </c>
-      <c r="C28" t="s">
-        <v>717</v>
-      </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -15892,13 +15899,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -15910,10 +15917,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" t="s">
         <v>531</v>
-      </c>
-      <c r="C30" t="s">
-        <v>532</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -15928,10 +15935,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C31" t="s">
         <v>719</v>
-      </c>
-      <c r="C31" t="s">
-        <v>720</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -15946,10 +15953,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -15964,13 +15971,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" t="s">
         <v>537</v>
-      </c>
-      <c r="C33" t="s">
-        <v>539</v>
-      </c>
-      <c r="D33" t="s">
-        <v>538</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -15982,10 +15989,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>539</v>
+      </c>
+      <c r="C34" t="s">
         <v>540</v>
-      </c>
-      <c r="C34" t="s">
-        <v>541</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -16000,10 +16007,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -16018,10 +16025,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>722</v>
+      </c>
+      <c r="C36" t="s">
         <v>723</v>
-      </c>
-      <c r="C36" t="s">
-        <v>724</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -16109,12 +16116,12 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -16143,10 +16150,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>452</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>453</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>148</v>
@@ -16200,13 +16207,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC3" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>444</v>
-      </c>
       <c r="AD3" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -16243,7 +16250,7 @@
         <v>139212</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J4" s="15">
         <v>45798</v>
@@ -16310,10 +16317,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -16368,13 +16375,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="7">
         <v>101.55</v>
@@ -16429,7 +16436,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -16447,7 +16454,7 @@
         <v>7791.6072000000004</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -16473,7 +16480,7 @@
         <v>2008</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -16482,13 +16489,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" t="s">
         <v>327</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D8" t="s">
-        <v>328</v>
       </c>
       <c r="E8" s="7">
         <v>27.8</v>
@@ -16503,7 +16510,7 @@
         <v>5904.7703999999994</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J8" s="15">
         <v>45804</v>
@@ -16540,10 +16547,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -16591,10 +16598,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -16612,7 +16619,7 @@
         <v>4007.9694340999999</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J10" s="15">
         <v>45722</v>
@@ -16649,10 +16656,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -16670,7 +16677,7 @@
         <v>1504.9194085300001</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="9"/>
@@ -16718,8 +16725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2AF2D-0F5F-41CB-A4FA-60433C4DB52C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16731,23 +16738,23 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>19</v>
@@ -16765,10 +16772,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="40"/>
@@ -16811,7 +16818,7 @@
         <v>129077.88982951202</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J4" s="15">
         <v>45770</v>
@@ -16854,7 +16861,7 @@
         <v>107131.43100800003</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J5" s="15">
         <v>45793</v>
@@ -16872,10 +16879,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -16897,7 +16904,7 @@
         <v>27510.653210200002</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="7"/>
@@ -16913,10 +16920,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
@@ -16938,7 +16945,7 @@
         <v>7017.9352924800014</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -16960,7 +16967,7 @@
         <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="16"/>
@@ -17006,13 +17013,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="D10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -17032,10 +17039,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -17058,13 +17065,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16"/>
@@ -17084,10 +17091,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -17110,13 +17117,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16"/>
@@ -17136,13 +17143,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" t="s">
         <v>354</v>
-      </c>
-      <c r="D15" t="s">
-        <v>355</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16"/>
@@ -17162,13 +17169,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" t="s">
         <v>356</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D16" t="s">
-        <v>357</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16"/>
@@ -17188,13 +17195,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="16"/>
@@ -17214,10 +17221,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
@@ -17240,13 +17247,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="16"/>
@@ -17266,13 +17273,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="16"/>
@@ -17292,13 +17299,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -17318,10 +17325,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -17344,13 +17351,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="16"/>
@@ -17370,13 +17377,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16"/>
@@ -17396,13 +17403,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16"/>
@@ -17422,10 +17429,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
@@ -17448,10 +17455,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -17471,10 +17478,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -17494,13 +17501,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E29" s="7"/>
       <c r="I29" s="10"/>
@@ -17517,10 +17524,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E30" s="7"/>
       <c r="I30" s="10"/>
@@ -17537,10 +17544,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D31" t="s">
         <v>125</v>
@@ -17560,10 +17567,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -17575,10 +17582,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -17590,13 +17597,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" t="s">
         <v>553</v>
-      </c>
-      <c r="D34" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -17605,10 +17612,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -17620,10 +17627,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -17635,10 +17642,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>558</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -17650,10 +17657,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="D38" t="s">
         <v>125</v>
@@ -17665,13 +17672,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -17680,13 +17687,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>564</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="D40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -17695,10 +17702,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>566</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
@@ -17710,10 +17717,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -17725,13 +17732,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -17740,10 +17747,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -17755,10 +17762,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
+        <v>570</v>
+      </c>
+      <c r="C45" t="s">
         <v>571</v>
-      </c>
-      <c r="C45" t="s">
-        <v>572</v>
       </c>
       <c r="D45" t="s">
         <v>85</v>
@@ -17770,10 +17777,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" t="s">
         <v>573</v>
-      </c>
-      <c r="C46" t="s">
-        <v>574</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -17785,10 +17792,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>574</v>
+      </c>
+      <c r="C47" t="s">
         <v>575</v>
-      </c>
-      <c r="C47" t="s">
-        <v>576</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
@@ -17800,10 +17807,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
+        <v>576</v>
+      </c>
+      <c r="C48" t="s">
         <v>577</v>
-      </c>
-      <c r="C48" t="s">
-        <v>578</v>
       </c>
       <c r="D48" t="s">
         <v>100</v>
@@ -17815,10 +17822,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -17830,10 +17837,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>578</v>
+      </c>
+      <c r="C50" t="s">
         <v>579</v>
-      </c>
-      <c r="C50" t="s">
-        <v>580</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -17845,10 +17852,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
+        <v>580</v>
+      </c>
+      <c r="C51" t="s">
         <v>581</v>
-      </c>
-      <c r="C51" t="s">
-        <v>582</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
@@ -17860,10 +17867,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
+        <v>582</v>
+      </c>
+      <c r="C52" t="s">
         <v>583</v>
-      </c>
-      <c r="C52" t="s">
-        <v>584</v>
       </c>
       <c r="D52" t="s">
         <v>125</v>
@@ -17875,13 +17882,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
+        <v>584</v>
+      </c>
+      <c r="C53" t="s">
         <v>585</v>
       </c>
-      <c r="C53" t="s">
-        <v>586</v>
-      </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -17890,13 +17897,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
+        <v>586</v>
+      </c>
+      <c r="C54" t="s">
         <v>587</v>
       </c>
-      <c r="C54" t="s">
-        <v>588</v>
-      </c>
       <c r="D54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -17943,7 +17950,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -17954,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -17965,10 +17972,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" t="s">
         <v>591</v>
-      </c>
-      <c r="C3" t="s">
-        <v>592</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -17980,10 +17987,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C4" t="s">
         <v>593</v>
-      </c>
-      <c r="C4" t="s">
-        <v>594</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -17995,10 +18002,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" t="s">
         <v>595</v>
-      </c>
-      <c r="C5" t="s">
-        <v>596</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -18010,13 +18017,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" t="s">
         <v>597</v>
       </c>
-      <c r="C6" t="s">
-        <v>598</v>
-      </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -18025,10 +18032,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" t="s">
         <v>599</v>
-      </c>
-      <c r="C7" t="s">
-        <v>600</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -18040,10 +18047,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" t="s">
         <v>601</v>
-      </c>
-      <c r="C8" t="s">
-        <v>602</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -18055,10 +18062,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" t="s">
         <v>603</v>
-      </c>
-      <c r="C9" t="s">
-        <v>604</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -18070,10 +18077,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" t="s">
         <v>605</v>
-      </c>
-      <c r="C10" t="s">
-        <v>606</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -18085,10 +18092,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C11" t="s">
         <v>607</v>
-      </c>
-      <c r="C11" t="s">
-        <v>608</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -18100,10 +18107,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C12" t="s">
         <v>609</v>
-      </c>
-      <c r="C12" t="s">
-        <v>610</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -18115,10 +18122,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" t="s">
         <v>611</v>
-      </c>
-      <c r="C13" t="s">
-        <v>612</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -18130,13 +18137,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14" t="s">
         <v>613</v>
       </c>
-      <c r="C14" t="s">
-        <v>614</v>
-      </c>
       <c r="D14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -18145,10 +18152,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" t="s">
         <v>615</v>
-      </c>
-      <c r="C15" t="s">
-        <v>616</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -18160,13 +18167,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" t="s">
         <v>617</v>
       </c>
-      <c r="C16" t="s">
-        <v>618</v>
-      </c>
       <c r="D16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -18175,13 +18182,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>618</v>
+      </c>
+      <c r="C17" t="s">
         <v>619</v>
       </c>
-      <c r="C17" t="s">
-        <v>620</v>
-      </c>
       <c r="D17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -18190,10 +18197,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" t="s">
         <v>621</v>
-      </c>
-      <c r="C18" t="s">
-        <v>622</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -18205,13 +18212,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>622</v>
+      </c>
+      <c r="C19" t="s">
         <v>623</v>
       </c>
-      <c r="C19" t="s">
-        <v>624</v>
-      </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -18220,13 +18227,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" t="s">
         <v>625</v>
       </c>
-      <c r="C20" t="s">
-        <v>626</v>
-      </c>
       <c r="D20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -18235,7 +18242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -18244,10 +18251,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" t="s">
         <v>628</v>
-      </c>
-      <c r="C22" t="s">
-        <v>629</v>
       </c>
       <c r="D22" t="s">
         <v>125</v>
@@ -18259,13 +18266,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>629</v>
+      </c>
+      <c r="C23" t="s">
         <v>630</v>
       </c>
-      <c r="C23" t="s">
-        <v>631</v>
-      </c>
       <c r="D23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -18274,13 +18281,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C24" t="s">
         <v>632</v>
       </c>
-      <c r="C24" t="s">
-        <v>633</v>
-      </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -18289,13 +18296,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>633</v>
+      </c>
+      <c r="C25" t="s">
         <v>634</v>
       </c>
-      <c r="C25" t="s">
-        <v>635</v>
-      </c>
       <c r="D25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -18304,10 +18311,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>635</v>
+      </c>
+      <c r="C26" t="s">
         <v>636</v>
-      </c>
-      <c r="C26" t="s">
-        <v>637</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -18319,10 +18326,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" t="s">
         <v>638</v>
-      </c>
-      <c r="C27" t="s">
-        <v>639</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -18334,10 +18341,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" t="s">
         <v>640</v>
-      </c>
-      <c r="C28" t="s">
-        <v>641</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -18349,10 +18356,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>641</v>
+      </c>
+      <c r="C29" t="s">
         <v>642</v>
-      </c>
-      <c r="C29" t="s">
-        <v>643</v>
       </c>
       <c r="D29" t="s">
         <v>109</v>
@@ -18364,13 +18371,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>643</v>
+      </c>
+      <c r="C30" t="s">
         <v>644</v>
       </c>
-      <c r="C30" t="s">
-        <v>645</v>
-      </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -18379,13 +18386,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>645</v>
+      </c>
+      <c r="C31" t="s">
         <v>646</v>
       </c>
-      <c r="C31" t="s">
-        <v>647</v>
-      </c>
       <c r="D31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -18394,10 +18401,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>647</v>
+      </c>
+      <c r="C32" t="s">
         <v>648</v>
-      </c>
-      <c r="C32" t="s">
-        <v>649</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -18409,10 +18416,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>649</v>
+      </c>
+      <c r="C33" t="s">
         <v>650</v>
-      </c>
-      <c r="C33" t="s">
-        <v>651</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -18424,10 +18431,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>651</v>
+      </c>
+      <c r="C34" t="s">
         <v>652</v>
-      </c>
-      <c r="C34" t="s">
-        <v>653</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -18439,10 +18446,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" t="s">
         <v>654</v>
-      </c>
-      <c r="C35" t="s">
-        <v>655</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -18454,13 +18461,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>655</v>
+      </c>
+      <c r="C36" t="s">
         <v>656</v>
       </c>
-      <c r="C36" t="s">
-        <v>657</v>
-      </c>
       <c r="D36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -18469,13 +18476,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" t="s">
         <v>658</v>
       </c>
-      <c r="C37" t="s">
-        <v>659</v>
-      </c>
       <c r="D37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -18484,10 +18491,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C38" t="s">
         <v>660</v>
-      </c>
-      <c r="C38" t="s">
-        <v>661</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -18499,13 +18506,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>661</v>
+      </c>
+      <c r="C39" t="s">
         <v>662</v>
       </c>
-      <c r="C39" t="s">
-        <v>663</v>
-      </c>
       <c r="D39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -18514,10 +18521,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>663</v>
+      </c>
+      <c r="C40" t="s">
         <v>664</v>
-      </c>
-      <c r="C40" t="s">
-        <v>665</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -18529,10 +18536,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>665</v>
+      </c>
+      <c r="C41" t="s">
         <v>666</v>
-      </c>
-      <c r="C41" t="s">
-        <v>667</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -18544,13 +18551,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>667</v>
+      </c>
+      <c r="C42" t="s">
         <v>668</v>
       </c>
-      <c r="C42" t="s">
-        <v>669</v>
-      </c>
       <c r="D42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -18559,13 +18566,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>669</v>
+      </c>
+      <c r="C43" t="s">
         <v>670</v>
       </c>
-      <c r="C43" t="s">
-        <v>671</v>
-      </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -18574,13 +18581,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
         <v>672</v>
       </c>
-      <c r="C44" t="s">
-        <v>673</v>
-      </c>
       <c r="D44" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -18589,10 +18596,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>673</v>
+      </c>
+      <c r="C45" t="s">
         <v>674</v>
-      </c>
-      <c r="C45" t="s">
-        <v>675</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -18604,10 +18611,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>675</v>
+      </c>
+      <c r="C46" t="s">
         <v>676</v>
-      </c>
-      <c r="C46" t="s">
-        <v>677</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -18619,10 +18626,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>677</v>
+      </c>
+      <c r="C47" t="s">
         <v>678</v>
-      </c>
-      <c r="C47" t="s">
-        <v>679</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -18659,82 +18666,82 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
         <v>433</v>
-      </c>
-      <c r="C5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" t="s">
         <v>479</v>
-      </c>
-      <c r="C10" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" t="s">
         <v>481</v>
-      </c>
-      <c r="C11" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" t="s">
         <v>483</v>
-      </c>
-      <c r="C12" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -18804,7 +18811,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="11">
         <v>1.24</v>
@@ -18812,7 +18819,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="11">
         <v>0.14000000000000001</v>
@@ -18820,7 +18827,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C10" s="11">
         <v>0.92</v>
@@ -18828,7 +18835,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C11" s="11">
         <v>0.25</v>
@@ -18836,7 +18843,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C12" s="11">
         <v>1.0999999999999999E-2</v>
@@ -18844,7 +18851,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" s="11">
         <v>0.69</v>
@@ -18852,7 +18859,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C14" s="11">
         <v>5.3999999999999999E-2</v>
@@ -18860,7 +18867,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="11">
         <v>0.03</v>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC7FFB-3EA8-4E5A-AE0D-3B1BD9FE2D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB13566-8822-49FF-91AE-BED00304A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="3" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Fashion" sheetId="1" r:id="rId1"/>
@@ -2600,22 +2600,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>304.16000000000003</v>
+            <v>259.77</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>37011.101280000003</v>
+            <v>29803.264031099996</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>1984.336</v>
+            <v>1325.2719999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>308.35199999999998</v>
+            <v>271.07600000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2770,12 +2770,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="M2">
-            <v>188.85</v>
+            <v>101.11</v>
           </cell>
         </row>
         <row r="4">
           <cell r="M4">
-            <v>28671.206999999999</v>
+            <v>15109.461321250001</v>
           </cell>
         </row>
         <row r="5">
@@ -3074,7 +3074,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3296,22 +3296,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>279.5</v>
+            <v>276.11</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>17263.0980925</v>
+            <v>17053.71740365</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>2143.1999999999998</v>
+            <v>2153</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>1142.0999999999999</v>
+            <v>2533.3999999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -3431,7 +3431,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4126,17 +4126,17 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>52.65</v>
+            <v>73.099999999999994</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>4858.5138848999995</v>
+            <v>6707.1010247999993</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>610.43000000000006</v>
+            <v>475.01799999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -4246,17 +4246,17 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>91.5</v>
+            <v>97.25</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>4609.1010434999998</v>
+            <v>4786.0614999999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>888.94799999999998</v>
+            <v>607.56899999999996</v>
           </cell>
         </row>
         <row r="6">
@@ -4366,22 +4366,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>75.930000000000007</v>
+            <v>66.599999999999994</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>3996.7230819900005</v>
+            <v>3201.6697920000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>748</v>
+            <v>191</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>1579.9</v>
+            <v>2347.3000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -4951,22 +4951,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>22.01</v>
+            <v>17.25</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>2595.1945879500004</v>
+            <v>2045.4005512499998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>356</v>
+            <v>166</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1479</v>
+            <v>1500</v>
           </cell>
         </row>
       </sheetData>
@@ -5204,7 +5204,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5633,7 +5633,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5712,8 +5712,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5752,7 +5752,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5869,7 +5869,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6194,11 +6194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,15 +6362,15 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1827576.017716842</v>
+        <v>1807277.7543700526</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>14021.293845200002</v>
+        <v>17976.772845200012</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1841597.3115620425</v>
+        <v>1825254.5272152526</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6418,15 +6418,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23734.753476842103</v>
+        <v>23471.13966714354</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>182.09472526233768</v>
+        <v>233.46458240519496</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23916.848202104447</v>
+        <v>23704.604249548735</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -7294,25 +7294,25 @@
       </c>
       <c r="E15" s="7">
         <f>+[10]Main!$I$2</f>
-        <v>304.16000000000003</v>
+        <v>259.77</v>
       </c>
       <c r="F15" s="16">
         <f>+[10]Main!$I$4</f>
-        <v>37011.101280000003</v>
+        <v>29803.264031099996</v>
       </c>
       <c r="G15" s="16">
         <f>+[10]Main!$I$6-[10]Main!$I$5</f>
-        <v>-1675.9839999999999</v>
+        <v>-1054.1959999999999</v>
       </c>
       <c r="H15" s="16">
         <f>F15+G15</f>
-        <v>35335.117280000006</v>
+        <v>28749.068031099996</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="J15" s="15">
-        <v>45812</v>
+        <v>45897</v>
       </c>
       <c r="K15" s="16">
         <v>9619.2999999999993</v>
@@ -7609,11 +7609,11 @@
       </c>
       <c r="E19" s="7">
         <f>+[14]Main!$M$2</f>
-        <v>188.85</v>
+        <v>101.11</v>
       </c>
       <c r="F19" s="16">
         <f>+[14]Main!$M$4</f>
-        <v>28671.206999999999</v>
+        <v>15109.461321250001</v>
       </c>
       <c r="G19" s="16">
         <f>+[14]Main!$M$6-[14]Main!$M$5</f>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H19" s="16">
         <f>F19+G19</f>
-        <v>26430.284</v>
+        <v>12868.538321250002</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>150</v>
@@ -8302,25 +8302,25 @@
       </c>
       <c r="E31" s="7">
         <f>+[26]Main!$H$2</f>
-        <v>279.5</v>
+        <v>276.11</v>
       </c>
       <c r="F31" s="16">
         <f>+[26]Main!$H$4</f>
-        <v>17263.0980925</v>
+        <v>17053.71740365</v>
       </c>
       <c r="G31" s="16">
         <f>+[26]Main!$H$6-[26]Main!$H$5</f>
-        <v>-1001.0999999999999</v>
+        <v>380.39999999999964</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="1"/>
-        <v>16261.9980925</v>
+        <v>17434.117403650002</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="J31" s="15">
-        <v>45798</v>
+        <v>45875</v>
       </c>
       <c r="K31" s="16">
         <v>6631.4</v>
@@ -8643,10 +8643,10 @@
         <v>7584.3403727999994</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="J36" s="15">
-        <v>45806</v>
+        <v>45897</v>
       </c>
       <c r="K36" s="16">
         <v>14889</v>
@@ -9443,25 +9443,25 @@
       </c>
       <c r="E50" s="7">
         <f>+[45]Main!$J$2</f>
-        <v>52.65</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="F50" s="16">
         <f>+[45]Main!$J$4</f>
-        <v>4858.5138848999995</v>
+        <v>6707.1010247999993</v>
       </c>
       <c r="G50" s="16">
         <f>+[45]Main!$J$6-[45]Main!$J$5</f>
-        <v>-610.43000000000006</v>
+        <v>-475.01799999999997</v>
       </c>
       <c r="H50" s="16">
         <f>+F50+G50</f>
-        <v>4248.0838848999992</v>
+        <v>6232.0830247999993</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>427</v>
+        <v>725</v>
       </c>
       <c r="J50" s="15">
-        <v>45797</v>
+        <v>45889</v>
       </c>
       <c r="K50" s="16"/>
       <c r="M50" s="16"/>
@@ -9615,19 +9615,19 @@
       </c>
       <c r="E53" s="7">
         <f>+[48]Main!$I$2</f>
-        <v>91.5</v>
+        <v>97.25</v>
       </c>
       <c r="F53" s="16">
         <f>+[48]Main!$I$4</f>
-        <v>4609.1010434999998</v>
+        <v>4786.0614999999998</v>
       </c>
       <c r="G53" s="16">
         <f>+[48]Main!$I$6-[48]Main!$I$5</f>
-        <v>-888.94799999999998</v>
+        <v>-607.56899999999996</v>
       </c>
       <c r="H53" s="16">
         <f>F53+G53</f>
-        <v>3720.1530435</v>
+        <v>4178.4925000000003</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>340</v>
@@ -9748,25 +9748,25 @@
       </c>
       <c r="E55" s="7">
         <f>+[50]Main!$J$2</f>
-        <v>75.930000000000007</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="F55" s="16">
         <f>+[50]Main!$J$4</f>
-        <v>3996.7230819900005</v>
+        <v>3201.6697920000001</v>
       </c>
       <c r="G55" s="16">
         <f>+([50]Main!$J$6-[50]Main!$J$5)</f>
-        <v>831.90000000000009</v>
+        <v>2156.3000000000002</v>
       </c>
       <c r="H55" s="16">
         <f>F55+G55</f>
-        <v>4828.6230819900011</v>
+        <v>5357.9697919999999</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="J55" s="15">
-        <v>45747</v>
+        <v>45896</v>
       </c>
       <c r="K55" s="16"/>
       <c r="M55" s="16"/>
@@ -9884,7 +9884,7 @@
         <v>150</v>
       </c>
       <c r="J57" s="15">
-        <v>45791</v>
+        <v>45974</v>
       </c>
       <c r="K57" s="16"/>
       <c r="M57" s="16"/>
@@ -10505,19 +10505,19 @@
       </c>
       <c r="E69" s="7">
         <f>+[64]Main!$I$2</f>
-        <v>22.01</v>
+        <v>17.25</v>
       </c>
       <c r="F69" s="16">
         <f>+[64]Main!$I$4</f>
-        <v>2595.1945879500004</v>
+        <v>2045.4005512499998</v>
       </c>
       <c r="G69" s="16">
         <f>+[64]Main!$I$6-[64]Main!$I$5</f>
-        <v>1123</v>
+        <v>1334</v>
       </c>
       <c r="H69" s="16">
         <f>+F69+G69</f>
-        <v>3718.1945879500004</v>
+        <v>3379.4005512499998</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>382</v>
@@ -16725,8 +16725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2AF2D-0F5F-41CB-A4FA-60433C4DB52C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB13566-8822-49FF-91AE-BED00304A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E0F92E-B70E-48E4-907F-1A8027495B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="3" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Fashion" sheetId="1" r:id="rId1"/>
@@ -2704,14 +2704,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3453,17 +3453,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>44.78</v>
+            <v>46.8</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>139465.20457874</v>
+            <v>145793.12908680001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>11502</v>
+            <v>10785</v>
           </cell>
         </row>
         <row r="7">
@@ -5712,8 +5712,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5752,7 +5752,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6194,11 +6194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,15 +6362,15 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1807277.7543700526</v>
+        <v>1813858.7958584351</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>17976.772845200012</v>
+        <v>18722.452845200012</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1825254.5272152526</v>
+        <v>1832581.2487036348</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6418,15 +6418,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23471.13966714354</v>
+        <v>23556.607738421237</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>233.46458240519496</v>
+        <v>243.1487382493508</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23704.604249548735</v>
+        <v>23799.756476670584</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -6721,25 +6721,25 @@
       </c>
       <c r="E8" s="7">
         <f>+[3]Main!$J$3</f>
-        <v>44.78</v>
+        <v>46.8</v>
       </c>
       <c r="F8" s="16">
         <f>+[3]Main!$J$5*FX!C3</f>
-        <v>145043.8127618896</v>
+        <v>151624.85425027201</v>
       </c>
       <c r="G8" s="16">
         <f>+([3]Main!$J$7-[3]Main!$J$6)*FX!C3</f>
-        <v>-11954.800000000001</v>
+        <v>-11209.12</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" ref="H8:H35" si="1">F8+G8</f>
-        <v>133089.01276188961</v>
+        <v>140415.73425027201</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="J8" s="15">
-        <v>45812</v>
+        <v>45910</v>
       </c>
       <c r="K8" s="16">
         <f>35947*FX!C3</f>
@@ -7695,7 +7695,6 @@
         <v>-0.01</v>
       </c>
       <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
@@ -7810,6 +7809,7 @@
       <c r="J22" s="15">
         <v>45772</v>
       </c>
+      <c r="N22" s="16"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -7862,7 +7862,6 @@
         <v>45861</v>
       </c>
       <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -7920,7 +7919,6 @@
         <v>45723</v>
       </c>
       <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -7978,7 +7976,6 @@
         <v>45883</v>
       </c>
       <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
@@ -8037,7 +8034,6 @@
       </c>
       <c r="K26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
@@ -16725,8 +16721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2AF2D-0F5F-41CB-A4FA-60433C4DB52C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E0F92E-B70E-48E4-907F-1A8027495B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593C7EF-3ECF-4ABE-8CA9-F62BE9B1CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Fashion" sheetId="1" r:id="rId1"/>
@@ -2704,14 +2704,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2809,26 +2809,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>134.5</v>
+            <v>134.9</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>215804.03949999998</v>
+            <v>216445.83590000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>16578</v>
+            <v>16262</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>64974</v>
+            <v>75359</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6195,10 +6195,10 @@
   <dimension ref="A1:AH212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,15 +6362,15 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1813858.7958584351</v>
+        <v>1813919.7665164352</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>18722.452845200012</v>
+        <v>19739.047845200013</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1832581.2487036348</v>
+        <v>1833658.8143616349</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6418,15 +6418,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23556.607738421237</v>
+        <v>23557.399565148509</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>243.1487382493508</v>
+        <v>256.35127071688328</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23799.756476670584</v>
+        <v>23813.750835865387</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -7667,25 +7667,25 @@
       </c>
       <c r="E20" s="7">
         <f>+[15]Main!$I$2</f>
-        <v>134.5</v>
+        <v>134.9</v>
       </c>
       <c r="F20" s="16">
         <f>+[15]Main!$I$4*FX!C4</f>
-        <v>20501.383752499998</v>
+        <v>20562.3544105</v>
       </c>
       <c r="G20" s="16">
         <f>+([15]Main!$I$6-[15]Main!$I$5)*FX!C4</f>
-        <v>4597.62</v>
+        <v>5614.2150000000001</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="1"/>
-        <v>25099.003752499997</v>
+        <v>26176.5694105</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>439</v>
+        <v>150</v>
       </c>
       <c r="J20" s="15">
-        <v>45834</v>
+        <v>45925</v>
       </c>
       <c r="K20" s="16">
         <f>234478*FX!C4</f>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593C7EF-3ECF-4ABE-8CA9-F62BE9B1CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F499D1-2E7A-45E9-BE68-E7BD80891418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Fashion" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="728">
   <si>
     <t>Fashion Universe</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Q225</t>
   </si>
   <si>
-    <t>Q323</t>
-  </si>
-  <si>
     <t>Uni First</t>
   </si>
   <si>
@@ -2313,6 +2310,12 @@
   </si>
   <si>
     <t>FQ425</t>
+  </si>
+  <si>
+    <t>Acquired by Dicks Sporting Goods for 2.4 billion USD</t>
+  </si>
+  <si>
+    <t>FQ126</t>
   </si>
 </sst>
 </file>
@@ -2828,7 +2831,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3611,12 +3614,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>110.7</v>
+            <v>108.4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>7526.8999331999994</v>
+            <v>7370.5144783999995</v>
           </cell>
         </row>
         <row r="5">
@@ -3650,22 +3653,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>52.1</v>
+            <v>51.16</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>8371.5321999999996</v>
+            <v>7769.9249999999993</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>78.48</v>
+            <v>75.495999999999995</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1479</v>
+            <v>1803.6</v>
           </cell>
         </row>
       </sheetData>
@@ -3689,22 +3692,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>14.88</v>
+            <v>21.82</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>5882.4812351999999</v>
+            <v>8633.1799026200006</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>574.4</v>
+            <v>736.7</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>987.4</v>
+            <v>1033.7</v>
           </cell>
         </row>
       </sheetData>
@@ -4755,22 +4758,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>56.3</v>
+            <v>69.3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>83217.029999999984</v>
+            <v>102335.31</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>10393</v>
+            <v>9151</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>8960</v>
+            <v>7961</v>
           </cell>
         </row>
       </sheetData>
@@ -5185,22 +5188,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>46660</v>
+            <v>43500</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>14313793.760159999</v>
+            <v>13344857.920500001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>977330</v>
+            <v>1628202</v>
           </cell>
         </row>
         <row r="7">
           <cell r="J7">
-            <v>333913</v>
+            <v>330069</v>
           </cell>
         </row>
       </sheetData>
@@ -5727,18 +5730,19 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Quartr"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>166.7</v>
+            <v>149.9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>103671.06340000001</v>
+            <v>93223.109800000006</v>
           </cell>
         </row>
         <row r="6">
@@ -5752,7 +5756,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6194,11 +6199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6239,7 +6244,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E2"/>
       <c r="I2"/>
@@ -6277,10 +6282,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>451</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>452</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>148</v>
@@ -6334,13 +6339,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC3" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>443</v>
-      </c>
       <c r="AD3" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -6353,24 +6358,24 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1813919.7665164352</v>
+        <v>1828920.2013210049</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>19739.047845200013</v>
+        <v>16068.921045200006</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1833658.8143616349</v>
+        <v>1844989.1223662053</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6410,7 +6415,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -6418,15 +6423,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23557.399565148509</v>
+        <v>23752.210406766299</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>256.35127071688328</v>
+        <v>208.68728630129877</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23813.750835865387</v>
+        <v>23960.8976930676</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -6532,7 +6537,7 @@
         <v>273454.1285476</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J6" s="15">
         <v>45830</v>
@@ -6634,7 +6639,7 @@
         <v>243433.008</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J7" s="15">
         <v>45838</v>
@@ -6714,7 +6719,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -6736,7 +6741,7 @@
         <v>140415.73425027201</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J8" s="15">
         <v>45910</v>
@@ -6835,7 +6840,7 @@
         <v>149620.80000000002</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J9" s="15">
         <v>45889</v>
@@ -6927,7 +6932,7 @@
         <v>131273.19750480002</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J10" s="15">
         <v>45500</v>
@@ -6986,25 +6991,25 @@
       </c>
       <c r="E11" s="7">
         <f>+[6]Main!$I$3</f>
-        <v>56.3</v>
+        <v>69.3</v>
       </c>
       <c r="F11" s="16">
         <f>+[6]Main!$I$5</f>
-        <v>83217.029999999984</v>
+        <v>102335.31</v>
       </c>
       <c r="G11" s="16">
         <f>+[6]Main!$I$7-[6]Main!$I$6</f>
-        <v>-1433</v>
+        <v>-1190</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="1"/>
-        <v>81784.029999999984</v>
+        <v>101145.31</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>382</v>
+        <v>725</v>
       </c>
       <c r="J11" s="15">
-        <v>45834</v>
+        <v>45930</v>
       </c>
       <c r="K11" s="16">
         <v>51362</v>
@@ -7082,25 +7087,25 @@
       </c>
       <c r="E12" s="17">
         <f>+[7]Main!$J$3</f>
-        <v>46660</v>
+        <v>43500</v>
       </c>
       <c r="F12" s="16">
         <f>+[7]Main!$J$5*FX!C5</f>
-        <v>90176.900689007991</v>
+        <v>84072.604899149999</v>
       </c>
       <c r="G12" s="16">
         <f>+([7]Main!$J$7-[7]Main!$J$6)*FX!C5</f>
-        <v>-4053.5271000000002</v>
+        <v>-8178.2379000000001</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="1"/>
-        <v>86123.373589007984</v>
+        <v>75894.366999149992</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="J12" s="15">
-        <v>45848</v>
+        <v>45939</v>
       </c>
       <c r="K12" s="16">
         <f>2301122*FX!C5</f>
@@ -7161,7 +7166,7 @@
         <v>90762.827415500011</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J13" s="15">
         <v>45853</v>
@@ -7235,7 +7240,7 @@
         <v>47300.519553500002</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J14" s="15">
         <v>45799</v>
@@ -7275,7 +7280,7 @@
         <v>1982</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -7309,7 +7314,7 @@
         <v>28749.068031099996</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J15" s="15">
         <v>45897</v>
@@ -7349,7 +7354,7 @@
         <v>1998</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -7383,7 +7388,7 @@
         <v>37485.084252511995</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J16" s="15">
         <v>45868</v>
@@ -7438,7 +7443,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
@@ -7460,7 +7465,7 @@
         <v>33126.560353120003</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J17" s="15">
         <v>45867</v>
@@ -7537,10 +7542,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E18" s="7">
         <f>+[13]Main!$H$2</f>
@@ -7559,7 +7564,7 @@
         <v>30924.615520820003</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J18" s="21">
         <v>45896</v>
@@ -7590,7 +7595,7 @@
         <v>1991</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -7727,7 +7732,7 @@
         <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="7">
         <f>+[16]Main!$H$2</f>
@@ -7746,7 +7751,7 @@
         <v>14856.379907199998</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J21" s="15">
         <v>45865</v>
@@ -7779,13 +7784,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="7">
         <f>+[17]Main!$I$2</f>
@@ -7804,7 +7809,7 @@
         <v>20418.151071830049</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J22" s="15">
         <v>45772</v>
@@ -7834,10 +7839,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="7">
         <f>+[18]Main!$H$2</f>
@@ -7856,7 +7861,7 @@
         <v>19231.585069424</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J23" s="15">
         <v>45861</v>
@@ -7879,7 +7884,7 @@
         <v>1952</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -7888,10 +7893,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -7945,10 +7950,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -7970,7 +7975,7 @@
         <v>18583.36219226</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J25" s="15">
         <v>45883</v>
@@ -7993,7 +7998,7 @@
         <v>2000</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -8005,7 +8010,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
@@ -8027,7 +8032,7 @@
         <v>15138.552613350599</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J26" s="15">
         <v>45882</v>
@@ -8051,7 +8056,7 @@
         <v>1949</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -8060,13 +8065,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E27" s="7">
         <f>+[22]Main!$I$2</f>
@@ -8122,7 +8127,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" s="7">
         <f>+[23]Main!$H$2</f>
@@ -8141,7 +8146,7 @@
         <v>14166.774425059202</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J28" s="15">
         <v>45881</v>
@@ -8174,13 +8179,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="7">
         <f>+[24]Main!$J$2</f>
@@ -8199,7 +8204,7 @@
         <v>21557.974004000003</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J29" s="15">
         <v>45888</v>
@@ -8221,7 +8226,7 @@
         <v>1950</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -8233,10 +8238,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E30" s="7">
         <f>+[25]Main!$J$2</f>
@@ -8291,7 +8296,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -8313,7 +8318,7 @@
         <v>17434.117403650002</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J31" s="15">
         <v>45875</v>
@@ -8381,13 +8386,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E32" s="7">
         <f>+[27]Main!$K$2</f>
@@ -8406,10 +8411,10 @@
         <v>11792.5579198</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K32" s="16"/>
       <c r="M32" s="16"/>
@@ -8431,7 +8436,7 @@
         <v>2004</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -8443,7 +8448,7 @@
         <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -8465,7 +8470,7 @@
         <v>7791.6072000000004</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J33" s="15">
         <v>45875</v>
@@ -8487,7 +8492,7 @@
         <v>2008</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -8496,7 +8501,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -8521,7 +8526,7 @@
         <v>8055.0563000000002</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J34" s="15">
         <v>45874</v>
@@ -8546,7 +8551,7 @@
         <v>1899</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -8605,7 +8610,7 @@
         <v>1774</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -8639,7 +8644,7 @@
         <v>7584.3403727999994</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J36" s="15">
         <v>45897</v>
@@ -8713,7 +8718,7 @@
         <v>8279.7465584000001</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J37" s="15">
         <v>45771</v>
@@ -8738,7 +8743,7 @@
         <v>1992</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -8747,21 +8752,21 @@
         <v>33</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" s="7">
         <f>+[33]Main!$J$2</f>
-        <v>110.7</v>
+        <v>108.4</v>
       </c>
       <c r="F38" s="16">
         <f>+[33]Main!$J$4*FX!C3</f>
-        <v>7827.9759305279995</v>
+        <v>7665.335057536</v>
       </c>
       <c r="G38" s="16">
         <f>+([33]Main!$J$6-[33]Main!$J$5)*FX!C3</f>
@@ -8769,10 +8774,10 @@
       </c>
       <c r="H38" s="16">
         <f>F38+G38</f>
-        <v>7934.8692105279997</v>
+        <v>7772.2283375360003</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J38" s="15">
         <v>45778</v>
@@ -8797,7 +8802,7 @@
         <v>1978</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -8816,26 +8821,24 @@
       </c>
       <c r="E39" s="7">
         <f>+[34]Main!$I$2</f>
-        <v>52.1</v>
+        <v>51.16</v>
       </c>
       <c r="F39" s="16">
         <f>+[34]Main!$I$4</f>
-        <v>8371.5321999999996</v>
+        <v>7769.9249999999993</v>
       </c>
       <c r="G39" s="16">
         <f>+[34]Main!$I$6-[34]Main!$I$5</f>
-        <v>1400.52</v>
+        <v>1728.1039999999998</v>
       </c>
       <c r="H39" s="16">
         <f>F39+G39</f>
-        <v>9772.0522000000001</v>
+        <v>9498.0289999999986</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="J39" s="15">
-        <v>45707</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="J39" s="15"/>
       <c r="K39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
@@ -8856,7 +8859,7 @@
         <v>1984</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8875,25 +8878,25 @@
       </c>
       <c r="E40" s="7">
         <f>+[35]Main!$I$2</f>
-        <v>14.88</v>
+        <v>21.82</v>
       </c>
       <c r="F40" s="16">
         <f>+[35]Main!$I$4</f>
-        <v>5882.4812351999999</v>
+        <v>8633.1799026200006</v>
       </c>
       <c r="G40" s="16">
         <f>+[35]Main!$I$6-[35]Main!$I$5</f>
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="H40" s="16">
         <f>F40+G40</f>
-        <v>6295.4812351999999</v>
+        <v>8930.1799026200006</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J40" s="15">
-        <v>45749</v>
+        <v>45931</v>
       </c>
       <c r="K40" s="16">
         <v>6179</v>
@@ -8939,13 +8942,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="D41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E41" s="7">
         <f>+[36]Main!$I$2</f>
@@ -8964,7 +8967,7 @@
         <v>7503.4873500000003</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K41" s="16"/>
       <c r="M41" s="16"/>
@@ -8996,7 +8999,7 @@
         <v>600398</v>
       </c>
       <c r="D42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E42" s="7">
         <f>+[37]Main!$J$2</f>
@@ -9044,13 +9047,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E43" s="7">
         <f>+[38]Main!$H$2</f>
@@ -9069,7 +9072,7 @@
         <v>5144.6567062000004</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K43" s="16"/>
       <c r="M43" s="16"/>
@@ -9120,7 +9123,7 @@
         <v>7552.5421999999999</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J44" s="15">
         <v>45869</v>
@@ -9145,7 +9148,7 @@
         <v>2002</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -9154,13 +9157,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D45" t="s">
         <v>326</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D45" t="s">
-        <v>327</v>
       </c>
       <c r="E45" s="7">
         <f>+[40]Main!$I$2</f>
@@ -9179,7 +9182,7 @@
         <v>5904.7703999999994</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J45" s="15">
         <v>45804</v>
@@ -9213,13 +9216,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E46" s="7">
         <f>+[41]Main!$I$2</f>
@@ -9238,7 +9241,7 @@
         <v>5494.8536640000002</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J46" s="15">
         <v>45807</v>
@@ -9262,7 +9265,7 @@
         <v>1981</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -9271,10 +9274,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D47" t="s">
         <v>107</v>
@@ -9296,7 +9299,7 @@
         <v>5335.7607539999999</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K47" s="16"/>
       <c r="M47" s="16"/>
@@ -9322,13 +9325,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E48" s="7">
         <f>+[43]Main!$H$2</f>
@@ -9381,10 +9384,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D49" t="s">
         <v>462</v>
-      </c>
-      <c r="D49" t="s">
-        <v>463</v>
       </c>
       <c r="E49" s="7">
         <f>+[44]Main!$I$2</f>
@@ -9403,7 +9406,7 @@
         <v>6839.1686444620009</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K49" s="16"/>
       <c r="M49" s="16"/>
@@ -9429,10 +9432,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -9454,7 +9457,7 @@
         <v>6232.0830247999993</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J50" s="15">
         <v>45889</v>
@@ -9486,7 +9489,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
         <v>82</v>
@@ -9508,7 +9511,7 @@
         <v>4851.1706880000002</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J51" s="15">
         <v>45869</v>
@@ -9533,7 +9536,7 @@
         <v>1948</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -9545,10 +9548,10 @@
         <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E52" s="7">
         <f>+[47]Main!$I$2</f>
@@ -9567,7 +9570,7 @@
         <v>4617.6524520000003</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J52" s="15">
         <v>45833</v>
@@ -9626,7 +9629,7 @@
         <v>4178.4925000000003</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J53" s="15">
         <v>45805</v>
@@ -9700,7 +9703,7 @@
         <v>3878.4726000000001</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J54" s="15">
         <v>45771</v>
@@ -9759,7 +9762,7 @@
         <v>5357.9697919999999</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J55" s="15">
         <v>45896</v>
@@ -9796,7 +9799,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D56" t="s">
         <v>125</v>
@@ -9818,7 +9821,7 @@
         <v>3556.0594297651505</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J56" s="15">
         <v>45812</v>
@@ -9843,7 +9846,7 @@
         <v>1985</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -9855,10 +9858,10 @@
         <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E57" s="7">
         <f>+[52]Main!$I$2</f>
@@ -9906,10 +9909,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -9931,7 +9934,7 @@
         <v>4041.6143400000001</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J58" s="15">
         <v>45791</v>
@@ -9956,7 +9959,7 @@
         <v>1978</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -9965,10 +9968,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -9990,7 +9993,7 @@
         <v>4493.6961148800001</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="16"/>
@@ -10013,7 +10016,7 @@
         <v>2019</v>
       </c>
       <c r="AE59" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -10022,10 +10025,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -10072,10 +10075,10 @@
         <v>50</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D61" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E61" s="7">
         <f>+[56]Main!$J$2</f>
@@ -10094,7 +10097,7 @@
         <v>4047.9972149999999</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K61" s="16"/>
       <c r="M61" s="16"/>
@@ -10120,10 +10123,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -10145,7 +10148,7 @@
         <v>3688.6548861900005</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K62" s="16"/>
       <c r="M62" s="16"/>
@@ -10174,7 +10177,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
@@ -10196,7 +10199,7 @@
         <v>3043.9552000000008</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J63" s="15">
         <v>45874</v>
@@ -10250,7 +10253,7 @@
         <v>2682.3947600000001</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J64" s="15">
         <v>45789</v>
@@ -10279,10 +10282,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -10304,7 +10307,7 @@
         <v>2596.4655860499997</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J65" s="15">
         <v>45723</v>
@@ -10333,13 +10336,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E66" s="7">
         <f>+[61]Main!$I$2</f>
@@ -10358,7 +10361,7 @@
         <v>3003.3278194628492</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K66" s="16"/>
       <c r="M66" s="16"/>
@@ -10384,10 +10387,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -10409,7 +10412,7 @@
         <v>4007.9694340999999</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J67" s="15">
         <v>45722</v>
@@ -10465,7 +10468,7 @@
         <v>2555.9634897599999</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K68" s="16"/>
       <c r="M68" s="16"/>
@@ -10491,13 +10494,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E69" s="7">
         <f>+[64]Main!$I$2</f>
@@ -10516,7 +10519,7 @@
         <v>3379.4005512499998</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J69" s="15">
         <v>45805</v>
@@ -10541,7 +10544,7 @@
         <v>1981</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -10556,7 +10559,7 @@
         <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E70" s="7">
         <f>+[65]Main!$J$2</f>
@@ -10604,13 +10607,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" s="7">
         <f>+[66]Main!$J$2</f>
@@ -10629,7 +10632,7 @@
         <v>2212.7803711287997</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J71" s="15">
         <v>45776</v>
@@ -11035,7 +11038,7 @@
         <v>4026.2967514399998</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K83" s="16"/>
       <c r="M83" s="16"/>
@@ -11125,13 +11128,13 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" t="s">
         <v>157</v>
-      </c>
-      <c r="D86" t="s">
-        <v>158</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -11160,13 +11163,13 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" t="s">
         <v>160</v>
-      </c>
-      <c r="D87" t="s">
-        <v>161</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -11195,13 +11198,13 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -11230,10 +11233,10 @@
         <v>84</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -11255,7 +11258,7 @@
         <v>1576.7592650000001</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K89" s="16"/>
       <c r="M89" s="16"/>
@@ -11281,10 +11284,10 @@
         <v>85</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -11306,7 +11309,7 @@
         <v>1610.0571035199996</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K90" s="16"/>
       <c r="M90" s="16"/>
@@ -11332,10 +11335,10 @@
         <v>86</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -11357,7 +11360,7 @@
         <v>1504.9194085300001</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K91" s="16"/>
       <c r="M91" s="16"/>
@@ -11388,13 +11391,13 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" t="s">
         <v>173</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D92" t="s">
-        <v>174</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -11423,13 +11426,13 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -11458,10 +11461,10 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
@@ -11493,10 +11496,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
@@ -11518,7 +11521,7 @@
         <v>1307.5021584900001</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K95" s="16"/>
       <c r="M95" s="16"/>
@@ -11544,10 +11547,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -11569,7 +11572,7 @@
         <v>990.49582505000001</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K96" s="16"/>
       <c r="M96" s="16"/>
@@ -11595,10 +11598,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D97" t="s">
         <v>107</v>
@@ -11620,7 +11623,7 @@
         <v>883.96551533879995</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J97" s="15"/>
       <c r="K97" s="16"/>
@@ -11647,13 +11650,13 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" t="s">
         <v>186</v>
-      </c>
-      <c r="D98" t="s">
-        <v>187</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -11682,13 +11685,13 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" t="s">
         <v>189</v>
-      </c>
-      <c r="D99" t="s">
-        <v>190</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -11717,10 +11720,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D100" t="s">
         <v>21</v>
@@ -11742,7 +11745,7 @@
         <v>500.70656488999998</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K100" s="16"/>
       <c r="M100" s="16"/>
@@ -11768,10 +11771,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
@@ -11793,7 +11796,7 @@
         <v>1117.88369158</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K101" s="16"/>
       <c r="M101" s="16"/>
@@ -11819,13 +11822,13 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="D102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -11854,13 +11857,13 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" t="s">
         <v>198</v>
-      </c>
-      <c r="D103" t="s">
-        <v>199</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -11889,13 +11892,13 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -11924,13 +11927,13 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -11959,13 +11962,13 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -11994,13 +11997,13 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -12029,10 +12032,10 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -12064,13 +12067,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -12099,10 +12102,10 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D110" t="s">
         <v>82</v>
@@ -12134,13 +12137,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" t="s">
         <v>215</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D111" t="s">
-        <v>216</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -12169,10 +12172,10 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D112" t="s">
         <v>21</v>
@@ -12204,13 +12207,13 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" t="s">
         <v>220</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D113" t="s">
-        <v>221</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -12239,13 +12242,13 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" t="s">
         <v>224</v>
-      </c>
-      <c r="D114" t="s">
-        <v>225</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -12274,10 +12277,10 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D115" t="s">
         <v>109</v>
@@ -12309,13 +12312,13 @@
         <v>111</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E116" s="7">
         <f>+'[76]Main '!$F$2</f>
@@ -12354,13 +12357,13 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -12389,13 +12392,13 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -12424,13 +12427,13 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -12459,13 +12462,13 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" t="s">
         <v>236</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D120" t="s">
-        <v>237</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -12494,13 +12497,13 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -12529,13 +12532,13 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -12564,10 +12567,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D123" t="s">
         <v>21</v>
@@ -12615,13 +12618,13 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" t="s">
         <v>246</v>
-      </c>
-      <c r="D124" t="s">
-        <v>247</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -12650,10 +12653,10 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -12685,13 +12688,13 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -12720,10 +12723,10 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
@@ -12755,13 +12758,13 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="D128" t="s">
         <v>255</v>
-      </c>
-      <c r="D128" t="s">
-        <v>256</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -12790,13 +12793,13 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -12825,10 +12828,10 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -12857,13 +12860,13 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="D131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -12892,10 +12895,10 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
@@ -12927,13 +12930,13 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="D133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -12962,10 +12965,10 @@
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
@@ -12997,10 +13000,10 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -13032,13 +13035,13 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -13067,13 +13070,13 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -13099,13 +13102,13 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -13134,10 +13137,10 @@
         <v>134</v>
       </c>
       <c r="B139" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -13169,13 +13172,13 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="D140" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -13204,10 +13207,10 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="D141" t="s">
         <v>21</v>
@@ -13239,13 +13242,13 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="D142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -13274,10 +13277,10 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D143" t="s">
         <v>21</v>
@@ -13309,10 +13312,10 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D144" t="s">
         <v>109</v>
@@ -13344,10 +13347,10 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -13379,10 +13382,10 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D146" t="s">
         <v>21</v>
@@ -13413,10 +13416,10 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D147" t="s">
         <v>100</v>
@@ -13445,13 +13448,13 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" t="s">
         <v>295</v>
-      </c>
-      <c r="D148" t="s">
-        <v>296</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -13477,10 +13480,10 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D149" t="s">
         <v>21</v>
@@ -13509,10 +13512,10 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D150" t="s">
         <v>82</v>
@@ -13541,10 +13544,10 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="D151" t="s">
         <v>21</v>
@@ -13573,10 +13576,10 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D152" t="s">
         <v>21</v>
@@ -13605,13 +13608,13 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -13637,10 +13640,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D154" t="s">
         <v>125</v>
@@ -13662,7 +13665,7 @@
         <v>285.95973709800001</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q154" s="18"/>
       <c r="R154" s="18"/>
@@ -13685,10 +13688,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D155" t="s">
         <v>21</v>
@@ -13710,7 +13713,7 @@
         <v>1627.5316492799998</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q155" s="18"/>
       <c r="R155" s="18"/>
@@ -13733,10 +13736,10 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D156" t="s">
         <v>125</v>
@@ -13765,10 +13768,10 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
+        <v>493</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D157" t="s">
         <v>21</v>
@@ -13797,10 +13800,10 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
+        <v>495</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="D158" t="s">
         <v>125</v>
@@ -13829,10 +13832,10 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
+        <v>497</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="D159" t="s">
         <v>21</v>
@@ -13861,13 +13864,13 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
+        <v>499</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="D160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -13893,13 +13896,13 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
+        <v>501</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="D161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -13925,13 +13928,13 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
+        <v>503</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -13957,10 +13960,10 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D163" t="s">
         <v>21</v>
@@ -13989,10 +13992,10 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D164" t="s">
         <v>21</v>
@@ -14021,13 +14024,13 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -14053,13 +14056,13 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -14085,10 +14088,10 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
+        <v>512</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="D167" t="s">
         <v>21</v>
@@ -14117,13 +14120,13 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
+        <v>515</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D168" t="s">
         <v>516</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D168" t="s">
-        <v>517</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -14149,10 +14152,10 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
+        <v>517</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="D169" t="s">
         <v>21</v>
@@ -14181,10 +14184,10 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
+        <v>519</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="D170" t="s">
         <v>21</v>
@@ -14213,13 +14216,13 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
+        <v>521</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="D171" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -14245,13 +14248,13 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D172" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -14277,10 +14280,10 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
+        <v>524</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="D173" t="s">
         <v>21</v>
@@ -14309,10 +14312,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
+        <v>527</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="D174" t="s">
         <v>21</v>
@@ -14341,10 +14344,10 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
+        <v>529</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="D175" t="s">
         <v>21</v>
@@ -14373,10 +14376,10 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
+        <v>531</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="D176" t="s">
         <v>21</v>
@@ -14405,10 +14408,10 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
+        <v>533</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="D177" t="s">
         <v>21</v>
@@ -14437,13 +14440,13 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
+        <v>535</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D178" t="s">
         <v>536</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D178" t="s">
-        <v>537</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -14469,10 +14472,10 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
+        <v>538</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="D179" t="s">
         <v>21</v>
@@ -14501,10 +14504,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
@@ -14533,10 +14536,10 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D181" t="s">
         <v>21</v>
@@ -14580,7 +14583,7 @@
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B183" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
@@ -14605,13 +14608,13 @@
         <v>129</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D184" t="s">
         <v>82</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -14633,26 +14636,26 @@
         <v>2014</v>
       </c>
       <c r="AE184" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
       <c r="H185" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q185" s="18"/>
       <c r="R185" s="18"/>
@@ -14671,10 +14674,10 @@
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -14696,16 +14699,16 @@
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
+        <v>483</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>485</v>
       </c>
       <c r="D187" t="s">
         <v>125</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -14727,7 +14730,7 @@
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -14749,7 +14752,7 @@
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -14772,7 +14775,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
@@ -14795,7 +14798,7 @@
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
@@ -14818,7 +14821,7 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
@@ -14840,7 +14843,7 @@
     </row>
     <row r="193" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -14862,7 +14865,7 @@
     </row>
     <row r="194" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
@@ -14884,7 +14887,7 @@
     </row>
     <row r="195" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C195"/>
       <c r="F195" s="16"/>
@@ -14907,7 +14910,7 @@
     </row>
     <row r="196" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
@@ -14929,7 +14932,7 @@
     </row>
     <row r="197" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -14951,7 +14954,7 @@
     </row>
     <row r="198" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -14973,7 +14976,7 @@
     </row>
     <row r="199" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
@@ -14995,7 +14998,7 @@
     </row>
     <row r="200" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -15309,7 +15312,7 @@
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15321,7 +15324,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -15350,10 +15353,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>451</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>452</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>148</v>
@@ -15407,13 +15410,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC3" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>443</v>
-      </c>
       <c r="AD3" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -15465,13 +15468,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -15483,13 +15486,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -15501,7 +15504,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -15522,7 +15525,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
         <v>125</v>
@@ -15537,7 +15540,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -15555,13 +15558,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -15573,7 +15576,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -15597,7 +15600,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -15609,13 +15612,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" t="s">
         <v>314</v>
       </c>
-      <c r="C14" t="s">
-        <v>315</v>
-      </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -15627,13 +15630,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -15648,7 +15651,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
@@ -15681,10 +15684,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -15699,10 +15702,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" t="s">
         <v>490</v>
-      </c>
-      <c r="C19" t="s">
-        <v>491</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -15717,10 +15720,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" t="s">
         <v>494</v>
-      </c>
-      <c r="C20" t="s">
-        <v>495</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -15742,7 +15745,7 @@
         <v>14232.185028799999</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -15751,10 +15754,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D21" t="s">
         <v>125</v>
@@ -15769,10 +15772,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" t="s">
         <v>496</v>
-      </c>
-      <c r="C22" t="s">
-        <v>497</v>
       </c>
       <c r="D22" t="s">
         <v>125</v>
@@ -15787,13 +15790,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>726</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15805,10 +15811,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>710</v>
+      </c>
+      <c r="C24" t="s">
         <v>711</v>
-      </c>
-      <c r="C24" t="s">
-        <v>712</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -15823,10 +15829,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -15841,7 +15847,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -15859,10 +15865,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" t="s">
         <v>532</v>
-      </c>
-      <c r="C27" t="s">
-        <v>533</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -15877,13 +15883,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>714</v>
+      </c>
+      <c r="C28" t="s">
         <v>715</v>
       </c>
-      <c r="C28" t="s">
-        <v>716</v>
-      </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -15895,13 +15901,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -15913,10 +15919,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C30" t="s">
         <v>530</v>
-      </c>
-      <c r="C30" t="s">
-        <v>531</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -15931,10 +15937,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>717</v>
+      </c>
+      <c r="C31" t="s">
         <v>718</v>
-      </c>
-      <c r="C31" t="s">
-        <v>719</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -15949,10 +15955,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -15967,13 +15973,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C33" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" t="s">
         <v>536</v>
-      </c>
-      <c r="C33" t="s">
-        <v>538</v>
-      </c>
-      <c r="D33" t="s">
-        <v>537</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -15985,10 +15991,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" t="s">
         <v>539</v>
-      </c>
-      <c r="C34" t="s">
-        <v>540</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -16003,10 +16009,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -16021,10 +16027,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C36" t="s">
         <v>722</v>
-      </c>
-      <c r="C36" t="s">
-        <v>723</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -16101,7 +16107,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16112,12 +16118,12 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -16146,10 +16152,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>451</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>452</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>148</v>
@@ -16203,13 +16209,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC3" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>443</v>
-      </c>
       <c r="AD3" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -16246,7 +16252,7 @@
         <v>139212</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J4" s="15">
         <v>45798</v>
@@ -16313,10 +16319,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -16371,13 +16377,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="7">
         <v>101.55</v>
@@ -16432,7 +16438,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -16450,7 +16456,7 @@
         <v>7791.6072000000004</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -16476,7 +16482,7 @@
         <v>2008</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -16485,13 +16491,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" t="s">
         <v>326</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" t="s">
-        <v>327</v>
       </c>
       <c r="E8" s="7">
         <v>27.8</v>
@@ -16506,7 +16512,7 @@
         <v>5904.7703999999994</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J8" s="15">
         <v>45804</v>
@@ -16543,10 +16549,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -16594,10 +16600,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -16615,7 +16621,7 @@
         <v>4007.9694340999999</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J10" s="15">
         <v>45722</v>
@@ -16652,10 +16658,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -16673,7 +16679,7 @@
         <v>1504.9194085300001</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="9"/>
@@ -16721,8 +16727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2AF2D-0F5F-41CB-A4FA-60433C4DB52C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16734,23 +16740,23 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>19</v>
@@ -16768,10 +16774,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="40"/>
@@ -16814,7 +16820,7 @@
         <v>129077.88982951202</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J4" s="15">
         <v>45770</v>
@@ -16842,11 +16848,11 @@
       </c>
       <c r="E5" s="7">
         <f>+[82]Main!$J$2</f>
-        <v>166.7</v>
+        <v>149.9</v>
       </c>
       <c r="F5" s="16">
         <f>+[82]Main!$J$5*FX!C7</f>
-        <v>116111.59100800003</v>
+        <v>104409.88297600002</v>
       </c>
       <c r="G5" s="16">
         <f>+([82]Main!$J$7-[82]Main!$J$6)*FX!C7</f>
@@ -16854,13 +16860,13 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H6" si="0">+F5+G5</f>
-        <v>107131.43100800003</v>
+        <v>95429.722976000019</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>336</v>
+        <v>727</v>
       </c>
       <c r="J5" s="15">
-        <v>45793</v>
+        <v>45975</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="9"/>
@@ -16875,10 +16881,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -16900,7 +16906,7 @@
         <v>27510.653210200002</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="7"/>
@@ -16916,10 +16922,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
@@ -16941,7 +16947,7 @@
         <v>7017.9352924800014</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -16963,7 +16969,7 @@
         <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="16"/>
@@ -17009,13 +17015,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -17035,10 +17041,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -17061,13 +17067,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16"/>
@@ -17087,10 +17093,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -17113,13 +17119,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16"/>
@@ -17139,13 +17145,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" t="s">
         <v>353</v>
-      </c>
-      <c r="D15" t="s">
-        <v>354</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16"/>
@@ -17165,13 +17171,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" t="s">
         <v>355</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D16" t="s">
-        <v>356</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16"/>
@@ -17191,13 +17197,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="16"/>
@@ -17217,10 +17223,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
@@ -17243,13 +17249,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="16"/>
@@ -17269,13 +17275,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="16"/>
@@ -17295,13 +17301,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -17321,10 +17327,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -17347,13 +17353,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="16"/>
@@ -17373,13 +17379,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16"/>
@@ -17399,13 +17405,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16"/>
@@ -17425,10 +17431,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
@@ -17451,10 +17457,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -17474,10 +17480,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -17497,13 +17503,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E29" s="7"/>
       <c r="I29" s="10"/>
@@ -17520,10 +17526,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E30" s="7"/>
       <c r="I30" s="10"/>
@@ -17540,10 +17546,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D31" t="s">
         <v>125</v>
@@ -17563,10 +17569,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -17578,10 +17584,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -17593,13 +17599,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>550</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" t="s">
         <v>552</v>
-      </c>
-      <c r="D34" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -17608,10 +17614,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>553</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -17623,10 +17629,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -17638,10 +17644,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -17653,10 +17659,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>559</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="D38" t="s">
         <v>125</v>
@@ -17668,13 +17674,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -17683,13 +17689,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="D40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -17698,10 +17704,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>565</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
@@ -17713,10 +17719,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -17728,13 +17734,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -17743,10 +17749,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -17758,10 +17764,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
+        <v>569</v>
+      </c>
+      <c r="C45" t="s">
         <v>570</v>
-      </c>
-      <c r="C45" t="s">
-        <v>571</v>
       </c>
       <c r="D45" t="s">
         <v>85</v>
@@ -17773,10 +17779,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
+        <v>571</v>
+      </c>
+      <c r="C46" t="s">
         <v>572</v>
-      </c>
-      <c r="C46" t="s">
-        <v>573</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -17788,10 +17794,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>573</v>
+      </c>
+      <c r="C47" t="s">
         <v>574</v>
-      </c>
-      <c r="C47" t="s">
-        <v>575</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
@@ -17803,10 +17809,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" t="s">
         <v>576</v>
-      </c>
-      <c r="C48" t="s">
-        <v>577</v>
       </c>
       <c r="D48" t="s">
         <v>100</v>
@@ -17818,10 +17824,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -17833,10 +17839,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>577</v>
+      </c>
+      <c r="C50" t="s">
         <v>578</v>
-      </c>
-      <c r="C50" t="s">
-        <v>579</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -17848,10 +17854,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
+        <v>579</v>
+      </c>
+      <c r="C51" t="s">
         <v>580</v>
-      </c>
-      <c r="C51" t="s">
-        <v>581</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
@@ -17863,10 +17869,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" t="s">
         <v>582</v>
-      </c>
-      <c r="C52" t="s">
-        <v>583</v>
       </c>
       <c r="D52" t="s">
         <v>125</v>
@@ -17878,13 +17884,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
+        <v>583</v>
+      </c>
+      <c r="C53" t="s">
         <v>584</v>
       </c>
-      <c r="C53" t="s">
-        <v>585</v>
-      </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -17893,13 +17899,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
+        <v>585</v>
+      </c>
+      <c r="C54" t="s">
         <v>586</v>
       </c>
-      <c r="C54" t="s">
-        <v>587</v>
-      </c>
       <c r="D54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -17946,7 +17952,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -17957,7 +17963,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -17968,10 +17974,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" t="s">
         <v>590</v>
-      </c>
-      <c r="C3" t="s">
-        <v>591</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -17983,10 +17989,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" t="s">
         <v>592</v>
-      </c>
-      <c r="C4" t="s">
-        <v>593</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -17998,10 +18004,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" t="s">
         <v>594</v>
-      </c>
-      <c r="C5" t="s">
-        <v>595</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -18013,13 +18019,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" t="s">
         <v>596</v>
       </c>
-      <c r="C6" t="s">
-        <v>597</v>
-      </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -18028,10 +18034,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" t="s">
         <v>598</v>
-      </c>
-      <c r="C7" t="s">
-        <v>599</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -18043,10 +18049,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" t="s">
         <v>600</v>
-      </c>
-      <c r="C8" t="s">
-        <v>601</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -18058,10 +18064,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" t="s">
         <v>602</v>
-      </c>
-      <c r="C9" t="s">
-        <v>603</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -18073,10 +18079,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" t="s">
         <v>604</v>
-      </c>
-      <c r="C10" t="s">
-        <v>605</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -18088,10 +18094,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" t="s">
         <v>606</v>
-      </c>
-      <c r="C11" t="s">
-        <v>607</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -18103,10 +18109,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" t="s">
         <v>608</v>
-      </c>
-      <c r="C12" t="s">
-        <v>609</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -18118,10 +18124,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C13" t="s">
         <v>610</v>
-      </c>
-      <c r="C13" t="s">
-        <v>611</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -18133,13 +18139,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" t="s">
         <v>612</v>
       </c>
-      <c r="C14" t="s">
-        <v>613</v>
-      </c>
       <c r="D14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -18148,10 +18154,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15" t="s">
         <v>614</v>
-      </c>
-      <c r="C15" t="s">
-        <v>615</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -18163,13 +18169,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" t="s">
         <v>616</v>
       </c>
-      <c r="C16" t="s">
-        <v>617</v>
-      </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -18178,13 +18184,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>617</v>
+      </c>
+      <c r="C17" t="s">
         <v>618</v>
       </c>
-      <c r="C17" t="s">
-        <v>619</v>
-      </c>
       <c r="D17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -18193,10 +18199,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" t="s">
         <v>620</v>
-      </c>
-      <c r="C18" t="s">
-        <v>621</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -18208,13 +18214,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>621</v>
+      </c>
+      <c r="C19" t="s">
         <v>622</v>
       </c>
-      <c r="C19" t="s">
-        <v>623</v>
-      </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -18223,13 +18229,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C20" t="s">
         <v>624</v>
       </c>
-      <c r="C20" t="s">
-        <v>625</v>
-      </c>
       <c r="D20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -18238,7 +18244,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -18247,10 +18253,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C22" t="s">
         <v>627</v>
-      </c>
-      <c r="C22" t="s">
-        <v>628</v>
       </c>
       <c r="D22" t="s">
         <v>125</v>
@@ -18262,13 +18268,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>628</v>
+      </c>
+      <c r="C23" t="s">
         <v>629</v>
       </c>
-      <c r="C23" t="s">
-        <v>630</v>
-      </c>
       <c r="D23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -18277,13 +18283,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" t="s">
         <v>631</v>
       </c>
-      <c r="C24" t="s">
-        <v>632</v>
-      </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -18292,13 +18298,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" t="s">
         <v>633</v>
       </c>
-      <c r="C25" t="s">
-        <v>634</v>
-      </c>
       <c r="D25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -18307,10 +18313,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" t="s">
         <v>635</v>
-      </c>
-      <c r="C26" t="s">
-        <v>636</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -18322,10 +18328,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>636</v>
+      </c>
+      <c r="C27" t="s">
         <v>637</v>
-      </c>
-      <c r="C27" t="s">
-        <v>638</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -18337,10 +18343,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>638</v>
+      </c>
+      <c r="C28" t="s">
         <v>639</v>
-      </c>
-      <c r="C28" t="s">
-        <v>640</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -18352,10 +18358,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" t="s">
         <v>641</v>
-      </c>
-      <c r="C29" t="s">
-        <v>642</v>
       </c>
       <c r="D29" t="s">
         <v>109</v>
@@ -18367,13 +18373,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>642</v>
+      </c>
+      <c r="C30" t="s">
         <v>643</v>
       </c>
-      <c r="C30" t="s">
-        <v>644</v>
-      </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -18382,13 +18388,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>644</v>
+      </c>
+      <c r="C31" t="s">
         <v>645</v>
       </c>
-      <c r="C31" t="s">
-        <v>646</v>
-      </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -18397,10 +18403,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>646</v>
+      </c>
+      <c r="C32" t="s">
         <v>647</v>
-      </c>
-      <c r="C32" t="s">
-        <v>648</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -18412,10 +18418,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>648</v>
+      </c>
+      <c r="C33" t="s">
         <v>649</v>
-      </c>
-      <c r="C33" t="s">
-        <v>650</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -18427,10 +18433,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>650</v>
+      </c>
+      <c r="C34" t="s">
         <v>651</v>
-      </c>
-      <c r="C34" t="s">
-        <v>652</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -18442,10 +18448,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>652</v>
+      </c>
+      <c r="C35" t="s">
         <v>653</v>
-      </c>
-      <c r="C35" t="s">
-        <v>654</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -18457,13 +18463,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>654</v>
+      </c>
+      <c r="C36" t="s">
         <v>655</v>
       </c>
-      <c r="C36" t="s">
-        <v>656</v>
-      </c>
       <c r="D36" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -18472,13 +18478,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>656</v>
+      </c>
+      <c r="C37" t="s">
         <v>657</v>
       </c>
-      <c r="C37" t="s">
-        <v>658</v>
-      </c>
       <c r="D37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -18487,10 +18493,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C38" t="s">
         <v>659</v>
-      </c>
-      <c r="C38" t="s">
-        <v>660</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -18502,13 +18508,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C39" t="s">
         <v>661</v>
       </c>
-      <c r="C39" t="s">
-        <v>662</v>
-      </c>
       <c r="D39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -18517,10 +18523,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>662</v>
+      </c>
+      <c r="C40" t="s">
         <v>663</v>
-      </c>
-      <c r="C40" t="s">
-        <v>664</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -18532,10 +18538,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>664</v>
+      </c>
+      <c r="C41" t="s">
         <v>665</v>
-      </c>
-      <c r="C41" t="s">
-        <v>666</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -18547,13 +18553,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>666</v>
+      </c>
+      <c r="C42" t="s">
         <v>667</v>
       </c>
-      <c r="C42" t="s">
-        <v>668</v>
-      </c>
       <c r="D42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -18562,13 +18568,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>668</v>
+      </c>
+      <c r="C43" t="s">
         <v>669</v>
       </c>
-      <c r="C43" t="s">
-        <v>670</v>
-      </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -18577,13 +18583,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>670</v>
+      </c>
+      <c r="C44" t="s">
         <v>671</v>
       </c>
-      <c r="C44" t="s">
-        <v>672</v>
-      </c>
       <c r="D44" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -18592,10 +18598,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>672</v>
+      </c>
+      <c r="C45" t="s">
         <v>673</v>
-      </c>
-      <c r="C45" t="s">
-        <v>674</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -18607,10 +18613,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>674</v>
+      </c>
+      <c r="C46" t="s">
         <v>675</v>
-      </c>
-      <c r="C46" t="s">
-        <v>676</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -18622,10 +18628,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>676</v>
+      </c>
+      <c r="C47" t="s">
         <v>677</v>
-      </c>
-      <c r="C47" t="s">
-        <v>678</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -18662,82 +18668,82 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
         <v>432</v>
-      </c>
-      <c r="C5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" t="s">
         <v>478</v>
-      </c>
-      <c r="C10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" t="s">
         <v>480</v>
-      </c>
-      <c r="C11" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" t="s">
         <v>482</v>
-      </c>
-      <c r="C12" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -18807,7 +18813,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="11">
         <v>1.24</v>
@@ -18815,7 +18821,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="11">
         <v>0.14000000000000001</v>
@@ -18823,7 +18829,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C10" s="11">
         <v>0.92</v>
@@ -18831,7 +18837,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="11">
         <v>0.25</v>
@@ -18839,7 +18845,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C12" s="11">
         <v>1.0999999999999999E-2</v>
@@ -18847,7 +18853,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13" s="11">
         <v>0.69</v>
@@ -18855,7 +18861,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="11">
         <v>5.3999999999999999E-2</v>
@@ -18863,7 +18869,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="11">
         <v>0.03</v>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F499D1-2E7A-45E9-BE68-E7BD80891418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFC785-D7A1-4C39-9C5A-5C5205487E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fashion" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Sports" sheetId="6" r:id="rId2"/>
     <sheet name="Retail" sheetId="5" r:id="rId3"/>
     <sheet name="Accessoires" sheetId="4" r:id="rId4"/>
@@ -21,12 +21,12 @@
     <sheet name="Furniture" sheetId="7" r:id="rId6"/>
     <sheet name="Glossar" sheetId="3" r:id="rId7"/>
     <sheet name="FX" sheetId="2" r:id="rId8"/>
+    <sheet name="Acquisitions" sheetId="9" r:id="rId9"/>
+    <sheet name="People" sheetId="10" r:id="rId10"/>
+    <sheet name="Market" sheetId="11" r:id="rId11"/>
+    <sheet name="Private" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
@@ -107,9 +107,13 @@
     <externalReference r:id="rId90"/>
     <externalReference r:id="rId91"/>
     <externalReference r:id="rId92"/>
+    <externalReference r:id="rId93"/>
+    <externalReference r:id="rId94"/>
+    <externalReference r:id="rId95"/>
+    <externalReference r:id="rId96"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fashion!$A$1:$AE$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$AE$181</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -132,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="754">
   <si>
     <t>Fashion Universe</t>
   </si>
@@ -476,9 +480,6 @@
     <t>ANF</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
     <t>Leather Goods, Luxury/Appereal</t>
   </si>
   <si>
@@ -1331,9 +1332,6 @@
     <t>ZAR/USD</t>
   </si>
   <si>
-    <t>Q325</t>
-  </si>
-  <si>
     <t>Founded</t>
   </si>
   <si>
@@ -1469,9 +1467,6 @@
     <t>UHR.SW</t>
   </si>
   <si>
-    <t>IPO in Q2/Q3 2025 on LSE</t>
-  </si>
-  <si>
     <t>-&gt; see Coupon Model for Farfetch Numbers</t>
   </si>
   <si>
@@ -2316,6 +2311,93 @@
   </si>
   <si>
     <t>FQ126</t>
+  </si>
+  <si>
+    <t>IPO in Q2/Q3 2025 on LSE for 50 b. USD valuation</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Versace</t>
+  </si>
+  <si>
+    <t>Capri Holding</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Bernhard</t>
+  </si>
+  <si>
+    <t>Arnault</t>
+  </si>
+  <si>
+    <t>3 G Capital</t>
+  </si>
+  <si>
+    <t>63$</t>
+  </si>
+  <si>
+    <t>Prada (1913.HK)</t>
+  </si>
+  <si>
+    <t>Zalando SE</t>
+  </si>
+  <si>
+    <t>Parent Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hansebrand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gildan </t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>LVMH CEO</t>
+  </si>
+  <si>
+    <t>CD Louis Vuitton</t>
+  </si>
+  <si>
+    <t>Demna</t>
+  </si>
+  <si>
+    <t>CD Gucci</t>
+  </si>
+  <si>
+    <t>Pharrell</t>
+  </si>
+  <si>
+    <t>Gvasalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former Creative Director of Balenciaga, Founder of Vetements </t>
+  </si>
+  <si>
+    <t>Dumas</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>CEO of Hermes</t>
+  </si>
+  <si>
+    <t>GAP</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +2525,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2525,6 +2607,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2561,22 +2648,22 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="I4">
-            <v>499.45</v>
+            <v>470.25</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>249895.66206499998</v>
+            <v>234391.06483649998</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>9631</v>
+            <v>8176</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>22672</v>
+            <v>22381</v>
           </cell>
         </row>
       </sheetData>
@@ -2642,12 +2729,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>201.7</v>
+            <v>168.1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>36013.350242799999</v>
+            <v>30014.101020399998</v>
           </cell>
         </row>
         <row r="5">
@@ -2676,7 +2763,7 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Brands"/>
-      <sheetName val="Market"/>
+      <sheetName val="Macro"/>
       <sheetName val="Model"/>
       <sheetName val="Quart"/>
       <sheetName val="Ratios"/>
@@ -2688,22 +2775,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>174</v>
+            <v>216.1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>21335.461878000002</v>
+            <v>26493.762538899999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>3518</v>
+            <v>4240</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>14035</v>
+            <v>13743</v>
           </cell>
         </row>
       </sheetData>
@@ -2773,17 +2860,17 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="M2">
-            <v>101.11</v>
+            <v>119</v>
           </cell>
         </row>
         <row r="4">
           <cell r="M4">
-            <v>15109.461321250001</v>
+            <v>17782.869125000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>2240.9229999999998</v>
+            <v>1720.4159999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -2855,22 +2942,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>48.5</v>
+            <v>40.6</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>14892.355679999999</v>
+            <v>12466.590528000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>1011.563</v>
+            <v>597.99199999999996</v>
           </cell>
         </row>
         <row r="7">
           <cell r="H7">
-            <v>404.18799999999999</v>
+            <v>243.54300000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2934,22 +3021,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>68.2</v>
+            <v>50.68</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>18443.897720599998</v>
+            <v>13710.09920364</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>803.40099999999995</v>
+            <v>1341.982</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>851.41200000000003</v>
+            <v>980.13599999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -3016,22 +3103,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="K2">
-            <v>2344</v>
+            <v>2078</v>
           </cell>
         </row>
         <row r="4">
           <cell r="K4">
-            <v>245651.19999999998</v>
+            <v>217849.56333799998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>11642</v>
+            <v>10321</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>61</v>
+            <v>32</v>
           </cell>
         </row>
       </sheetData>
@@ -3058,26 +3145,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>81.58</v>
+            <v>99.39</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>16943.36219226</v>
+            <v>20685.40738692</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>1057</v>
+            <v>1119.5999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>2697</v>
+            <v>2394.6</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3178,22 +3265,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>54.01</v>
+            <v>49.4</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>13466.70573666</v>
+            <v>12305.073552849997</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>871.8</v>
+            <v>898.4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="H7">
-            <v>54</v>
+            <v>53.5</v>
           </cell>
         </row>
       </sheetData>
@@ -3299,22 +3386,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>276.11</v>
+            <v>298.52</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>17053.71740365</v>
+            <v>18082.634662639997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>2153</v>
+            <v>2276.7999999999997</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>2533.3999999999996</v>
+            <v>1867.4</v>
           </cell>
         </row>
       </sheetData>
@@ -3376,22 +3463,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>32.299999999999997</v>
+            <v>23.72</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>8368.93</v>
+            <v>6174.3159999999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>1959.4</v>
+            <v>2183</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1082.4000000000001</v>
+            <v>1092.2</v>
           </cell>
         </row>
       </sheetData>
@@ -3415,26 +3502,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>12.26</v>
+            <v>13.17</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>4776.5573000000004</v>
+            <v>5144.4193313400001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>1369.376</v>
+            <v>642.38599999999997</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>4647.875</v>
+            <v>4539.91</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3851,22 +3938,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>111.22</v>
+            <v>55.783000000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>6240.5541999999996</v>
+            <v>3046.7200813140003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>169.73699999999999</v>
+            <v>200.61099999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>1481.7249999999999</v>
+            <v>1379.1120000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -4168,12 +4255,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>24.59</v>
+            <v>20.399999999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>3641.2872000000002</v>
+            <v>3020.8319999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -4445,12 +4532,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>9.48</v>
+            <v>12.835000000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>3397.6320000000001</v>
+            <v>4600.0640000000003</v>
           </cell>
         </row>
         <row r="5">
@@ -4677,22 +4764,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>38.450000000000003</v>
+            <v>41.48</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>2706.8800000000006</v>
+            <v>2920.192</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>107</v>
+            <v>152</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>327</v>
+            <v>346</v>
           </cell>
         </row>
       </sheetData>
@@ -5344,22 +5431,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>12.42</v>
+            <v>15.34</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>1202.50944252</v>
+            <v>1486.6562653799999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>333.4</v>
+            <v>180.5</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>412</v>
+            <v>401.20000000000005</v>
           </cell>
         </row>
       </sheetData>
@@ -5756,8 +5843,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5816,22 +5903,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>148.05000000000001</v>
+            <v>140.1</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>7640.0136540000012</v>
+            <v>7229.7596279999998</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1396</v>
+            <v>1276</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>22</v>
+            <v>187</v>
           </cell>
         </row>
       </sheetData>
@@ -5855,22 +5942,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="H3">
-            <v>151.5</v>
+            <v>137</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>49816.452553499999</v>
+            <v>44808.661376999997</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>4730.7439999999997</v>
+            <v>3783.413</v>
           </cell>
         </row>
         <row r="7">
           <cell r="H7">
-            <v>2214.8109999999997</v>
+            <v>1515.7090000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -6199,11 +6286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6331,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E2"/>
       <c r="I2"/>
@@ -6282,22 +6369,22 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>95</v>
       </c>
       <c r="M3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>89</v>
@@ -6339,13 +6426,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC3" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AD3" s="35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -6353,29 +6440,29 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1828920.2013210049</v>
+        <v>1772611.5274026662</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>16068.921045200006</v>
+        <v>17323.171805200011</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1844989.1223662053</v>
+        <v>1789934.6992078661</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6415,7 +6502,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -6423,15 +6510,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23752.210406766299</v>
+        <v>23020.928927307352</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>208.68728630129877</v>
+        <v>224.97625721038975</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23960.8976930676</v>
+        <v>23245.905184517742</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -6522,25 +6609,25 @@
       </c>
       <c r="E6" s="7">
         <f>+[1]Main!$I$4</f>
-        <v>499.45</v>
+        <v>470.25</v>
       </c>
       <c r="F6" s="16">
         <f>+[1]Main!$I$6*FX!C3</f>
-        <v>259891.48854759999</v>
+        <v>243766.70742995999</v>
       </c>
       <c r="G6" s="16">
         <f>(+[1]Main!$I$8-[1]Main!$I$7)*FX!C3</f>
-        <v>13562.640000000001</v>
+        <v>14773.2</v>
       </c>
       <c r="H6" s="16">
         <f>F6+G6</f>
-        <v>273454.1285476</v>
+        <v>258539.90742996</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J6" s="15">
-        <v>45830</v>
+        <v>45944</v>
       </c>
       <c r="K6" s="16">
         <f>84683*FX!C3</f>
@@ -6605,7 +6692,7 @@
         <v>1987</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -6624,25 +6711,25 @@
       </c>
       <c r="E7" s="17">
         <f>+[2]Main!$K$2</f>
-        <v>2344</v>
+        <v>2078</v>
       </c>
       <c r="F7" s="16">
         <f>+[2]Main!$K$4*FX!C3</f>
-        <v>255477.24799999999</v>
+        <v>226563.54587151998</v>
       </c>
       <c r="G7" s="16">
         <f>+([2]Main!$K$6-[2]Main!$K$5)*FX!C3</f>
-        <v>-12044.24</v>
+        <v>-10700.56</v>
       </c>
       <c r="H7" s="16">
         <f>F7+G7</f>
-        <v>243433.008</v>
+        <v>215862.98587151998</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J7" s="15">
-        <v>45838</v>
+        <v>45953</v>
       </c>
       <c r="K7" s="16">
         <f>13427*1.08</f>
@@ -6707,7 +6794,7 @@
         <v>1837</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -6719,7 +6806,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -6741,7 +6828,7 @@
         <v>140415.73425027201</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J8" s="15">
         <v>45910</v>
@@ -6806,7 +6893,7 @@
         <v>1985</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -6840,7 +6927,7 @@
         <v>149620.80000000002</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J9" s="15">
         <v>45889</v>
@@ -6898,7 +6985,7 @@
         <v>1987</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -6932,7 +7019,7 @@
         <v>131273.19750480002</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J10" s="15">
         <v>45500</v>
@@ -6972,7 +7059,7 @@
         <v>1945</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -7006,7 +7093,7 @@
         <v>101145.31</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="J11" s="15">
         <v>45930</v>
@@ -7068,7 +7155,7 @@
         <v>1964</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -7077,13 +7164,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
       </c>
       <c r="E12" s="17">
         <f>+[7]Main!$J$3</f>
@@ -7102,7 +7189,7 @@
         <v>75894.366999149992</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J12" s="15">
         <v>45939</v>
@@ -7132,7 +7219,7 @@
         <v>1949</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -7141,10 +7228,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -7166,7 +7253,7 @@
         <v>90762.827415500011</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J13" s="15">
         <v>45853</v>
@@ -7206,7 +7293,7 @@
         <v>1929</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -7215,32 +7302,32 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="7">
         <f>+[9]Main!$H$3</f>
-        <v>151.5</v>
+        <v>137</v>
       </c>
       <c r="F14" s="16">
         <f>+[9]Main!$H$5</f>
-        <v>49816.452553499999</v>
+        <v>44808.661376999997</v>
       </c>
       <c r="G14" s="16">
         <f>+[9]Main!$H$7-[9]Main!$H$6</f>
-        <v>-2515.933</v>
+        <v>-2267.7039999999997</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="1"/>
-        <v>47300.519553500002</v>
+        <v>42540.957376999999</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="J14" s="15">
         <v>45799</v>
@@ -7280,7 +7367,7 @@
         <v>1982</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -7314,7 +7401,7 @@
         <v>28749.068031099996</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J15" s="15">
         <v>45897</v>
@@ -7354,7 +7441,7 @@
         <v>1998</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -7373,11 +7460,11 @@
       </c>
       <c r="E16" s="7">
         <f>+[11]Main!$I$2</f>
-        <v>201.7</v>
+        <v>168.1</v>
       </c>
       <c r="F16" s="16">
         <f>+[11]Main!$I$4*FX!C3</f>
-        <v>37453.884252511998</v>
+        <v>31214.665061215997</v>
       </c>
       <c r="G16" s="16">
         <f>+([11]Main!$I$6-[11]Main!$I$5)*FX!C3</f>
@@ -7385,10 +7472,10 @@
       </c>
       <c r="H16" s="16">
         <f>F16+G16</f>
-        <v>37485.084252511995</v>
+        <v>31245.865061215998</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J16" s="15">
         <v>45868</v>
@@ -7431,7 +7518,7 @@
         <v>1949</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -7443,32 +7530,32 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="7">
         <f>+[12]Main!$H$2</f>
-        <v>174</v>
+        <v>216.1</v>
       </c>
       <c r="F17" s="16">
         <f>+[12]Main!$H$4*FX!C3</f>
-        <v>22188.880353120003</v>
+        <v>27553.513040456</v>
       </c>
       <c r="G17" s="16">
         <f>+([12]Main!$H$6-[12]Main!$H$5)*FX!C3</f>
-        <v>10937.68</v>
+        <v>9883.1200000000008</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="1"/>
-        <v>33126.560353120003</v>
+        <v>37436.633040455999</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J17" s="15">
-        <v>45867</v>
+        <v>45952</v>
       </c>
       <c r="K17" s="16">
         <f>17194*FX!C3</f>
@@ -7530,7 +7617,7 @@
         <v>1962</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -7542,10 +7629,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E18" s="7">
         <f>+[13]Main!$H$2</f>
@@ -7564,7 +7651,7 @@
         <v>30924.615520820003</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J18" s="21">
         <v>45896</v>
@@ -7595,7 +7682,7 @@
         <v>1991</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -7614,25 +7701,25 @@
       </c>
       <c r="E19" s="7">
         <f>+[14]Main!$M$2</f>
-        <v>101.11</v>
+        <v>119</v>
       </c>
       <c r="F19" s="16">
         <f>+[14]Main!$M$4</f>
-        <v>15109.461321250001</v>
+        <v>17782.869125000001</v>
       </c>
       <c r="G19" s="16">
         <f>+[14]Main!$M$6-[14]Main!$M$5</f>
-        <v>-2240.9229999999998</v>
+        <v>-1720.4159999999999</v>
       </c>
       <c r="H19" s="16">
         <f>F19+G19</f>
-        <v>12868.538321250002</v>
+        <v>16062.453125000002</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>150</v>
+        <v>721</v>
       </c>
       <c r="J19" s="15">
-        <v>45799</v>
+        <v>45953</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -7653,7 +7740,7 @@
         <v>1973</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -7687,7 +7774,7 @@
         <v>26176.5694105</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="15">
         <v>45925</v>
@@ -7717,7 +7804,7 @@
         <v>1947</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -7726,35 +7813,35 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="7">
         <f>+[16]Main!$H$2</f>
-        <v>48.5</v>
+        <v>40.6</v>
       </c>
       <c r="F21" s="16">
         <f>+[16]Main!$H$5*FX!C3</f>
-        <v>15488.049907199998</v>
+        <v>12965.254149120001</v>
       </c>
       <c r="G21" s="16">
         <f>(+[16]Main!$H$7-[16]Main!$H$6)*FX!C3</f>
-        <v>-631.67000000000007</v>
+        <v>-368.62695999999994</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="1"/>
-        <v>14856.379907199998</v>
+        <v>12596.627189120001</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J21" s="15">
-        <v>45865</v>
+        <v>45953</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -7775,7 +7862,7 @@
         <v>1913</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -7784,13 +7871,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" s="7">
         <f>+[17]Main!$I$2</f>
@@ -7809,7 +7896,7 @@
         <v>20418.151071830049</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J22" s="15">
         <v>45772</v>
@@ -7839,32 +7926,32 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E23" s="7">
         <f>+[18]Main!$H$2</f>
-        <v>68.2</v>
+        <v>50.68</v>
       </c>
       <c r="F23" s="16">
         <f>+[18]Main!$H$4*FX!C3</f>
-        <v>19181.653629424</v>
+        <v>14258.5031717856</v>
       </c>
       <c r="G23" s="16">
         <f>+([18]Main!$H$6-[18]Main!$H$5)*FX!C3</f>
-        <v>49.931440000000087</v>
+        <v>-376.31984</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="1"/>
-        <v>19231.585069424</v>
+        <v>13882.1833317856</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c r="J23" s="15">
-        <v>45861</v>
+        <v>45958</v>
       </c>
       <c r="M23" s="16"/>
       <c r="Q23" s="18"/>
@@ -7884,7 +7971,7 @@
         <v>1952</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -7893,10 +7980,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -7918,7 +8005,7 @@
         <v>19435.35525072</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J24" s="15">
         <v>45723</v>
@@ -7941,7 +8028,7 @@
         <v>1972</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -7950,35 +8037,35 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="7">
         <f>+[20]Main!$J$2</f>
-        <v>81.58</v>
+        <v>99.39</v>
       </c>
       <c r="F25" s="16">
         <f>+[20]Main!$J$4</f>
-        <v>16943.36219226</v>
+        <v>20685.40738692</v>
       </c>
       <c r="G25" s="16">
         <f>+[20]Main!$J$6-[20]Main!$J$5</f>
-        <v>1640</v>
+        <v>1275</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="1"/>
-        <v>18583.36219226</v>
+        <v>21960.40738692</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="J25" s="15">
-        <v>45883</v>
+        <v>45967</v>
       </c>
       <c r="M25" s="16"/>
       <c r="Q25" s="18"/>
@@ -7998,7 +8085,7 @@
         <v>2000</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -8010,10 +8097,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="7">
         <f>+[21]Main!$I$2</f>
@@ -8032,7 +8119,7 @@
         <v>15138.552613350599</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J26" s="15">
         <v>45882</v>
@@ -8056,7 +8143,7 @@
         <v>1949</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -8065,13 +8152,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E27" s="7">
         <f>+[22]Main!$I$2</f>
@@ -8090,7 +8177,7 @@
         <v>16751.988568000001</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J27" s="15">
         <v>45736</v>
@@ -8112,7 +8199,7 @@
         <v>1864</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -8127,29 +8214,29 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E28" s="7">
         <f>+[23]Main!$H$2</f>
-        <v>54.01</v>
+        <v>49.4</v>
       </c>
       <c r="F28" s="16">
         <f>+[23]Main!$H$5*FX!C7</f>
-        <v>15082.710425059202</v>
+        <v>13781.682379191998</v>
       </c>
       <c r="G28" s="16">
         <f>+([23]Main!$H$7-[23]Main!$H$6)*FX!C7</f>
-        <v>-915.93600000000004</v>
+        <v>-946.28800000000001</v>
       </c>
       <c r="H28" s="16">
         <f>F28+G28</f>
-        <v>14166.774425059202</v>
+        <v>12835.394379191997</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J28" s="15">
-        <v>45881</v>
+        <v>45972</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
@@ -8170,7 +8257,7 @@
         <v>2010</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -8179,13 +8266,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="7">
         <f>+[24]Main!$J$2</f>
@@ -8204,7 +8291,7 @@
         <v>21557.974004000003</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J29" s="15">
         <v>45888</v>
@@ -8226,7 +8313,7 @@
         <v>1950</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -8238,10 +8325,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E30" s="7">
         <f>+[25]Main!$J$2</f>
@@ -8260,7 +8347,7 @@
         <v>11154.322281767001</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J30" s="21">
         <v>45741</v>
@@ -8296,32 +8383,32 @@
         <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="7">
         <f>+[26]Main!$H$2</f>
-        <v>276.11</v>
+        <v>298.52</v>
       </c>
       <c r="F31" s="16">
         <f>+[26]Main!$H$4</f>
-        <v>17053.71740365</v>
+        <v>18082.634662639997</v>
       </c>
       <c r="G31" s="16">
         <f>+[26]Main!$H$6-[26]Main!$H$5</f>
-        <v>380.39999999999964</v>
+        <v>-409.39999999999964</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="1"/>
-        <v>17434.117403650002</v>
+        <v>17673.234662639996</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>426</v>
+        <v>721</v>
       </c>
       <c r="J31" s="15">
-        <v>45875</v>
+        <v>45916</v>
       </c>
       <c r="K31" s="16">
         <v>6631.4</v>
@@ -8386,13 +8473,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E32" s="7">
         <f>+[27]Main!$K$2</f>
@@ -8411,10 +8498,10 @@
         <v>11792.5579198</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K32" s="16"/>
       <c r="M32" s="16"/>
@@ -8436,7 +8523,7 @@
         <v>2004</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -8445,35 +8532,35 @@
         <v>28</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="7">
         <f>+[28]Main!$I$2</f>
-        <v>32.299999999999997</v>
+        <v>23.72</v>
       </c>
       <c r="F33" s="16">
         <f>+[28]Main!$I$4*FX!C3</f>
-        <v>8703.6872000000003</v>
+        <v>6421.2886399999998</v>
       </c>
       <c r="G33" s="16">
         <f>+([28]Main!$I$6-[28]Main!$I$5)*FX!C3</f>
-        <v>-912.08</v>
+        <v>-1134.432</v>
       </c>
       <c r="H33" s="16">
         <f>F33+G33</f>
-        <v>7791.6072000000004</v>
+        <v>5286.85664</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J33" s="15">
-        <v>45875</v>
+        <v>45967</v>
       </c>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
@@ -8492,7 +8579,7 @@
         <v>2008</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -8501,7 +8588,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -8511,25 +8598,25 @@
       </c>
       <c r="E34" s="7">
         <f>+[29]Main!$H$2</f>
-        <v>12.26</v>
+        <v>13.17</v>
       </c>
       <c r="F34" s="16">
         <f>+[29]Main!$H$4</f>
-        <v>4776.5573000000004</v>
+        <v>5144.4193313400001</v>
       </c>
       <c r="G34" s="16">
         <f>+[29]Main!$H$6-[29]Main!$H$5</f>
-        <v>3278.4989999999998</v>
+        <v>3897.5239999999999</v>
       </c>
       <c r="H34" s="16">
         <f>+G34+F34</f>
-        <v>8055.0563000000002</v>
+        <v>9041.9433313400004</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J34" s="15">
-        <v>45874</v>
+        <v>45957</v>
       </c>
       <c r="K34" s="16"/>
       <c r="M34" s="16"/>
@@ -8551,7 +8638,7 @@
         <v>1899</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -8585,7 +8672,7 @@
         <v>12138.318934560002</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="15">
         <v>45897</v>
@@ -8610,7 +8697,7 @@
         <v>1774</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -8622,7 +8709,7 @@
         <v>111</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>114</v>
+        <v>753</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -8644,7 +8731,7 @@
         <v>7584.3403727999994</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J36" s="15">
         <v>45897</v>
@@ -8718,7 +8805,7 @@
         <v>8279.7465584000001</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J37" s="15">
         <v>45771</v>
@@ -8743,7 +8830,7 @@
         <v>1992</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -8752,13 +8839,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="7">
         <f>+[33]Main!$J$2</f>
@@ -8777,7 +8864,7 @@
         <v>7772.2283375360003</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J38" s="15">
         <v>45778</v>
@@ -8802,7 +8889,7 @@
         <v>1978</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -8836,7 +8923,7 @@
         <v>9498.0289999999986</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="16"/>
@@ -8859,7 +8946,7 @@
         <v>1984</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -8893,7 +8980,7 @@
         <v>8930.1799026200006</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J40" s="15">
         <v>45931</v>
@@ -8942,13 +9029,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E41" s="7">
         <f>+[36]Main!$I$2</f>
@@ -8967,7 +9054,7 @@
         <v>7503.4873500000003</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K41" s="16"/>
       <c r="M41" s="16"/>
@@ -8999,7 +9086,7 @@
         <v>600398</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E42" s="7">
         <f>+[37]Main!$J$2</f>
@@ -9018,7 +9105,7 @@
         <v>5221.1600000000008</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K42" s="16"/>
       <c r="M42" s="16"/>
@@ -9047,13 +9134,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="7">
         <f>+[38]Main!$H$2</f>
@@ -9072,7 +9159,7 @@
         <v>5144.6567062000004</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K43" s="16"/>
       <c r="M43" s="16"/>
@@ -9108,22 +9195,22 @@
       </c>
       <c r="E44" s="7">
         <f>+[39]Main!$H$2</f>
-        <v>111.22</v>
+        <v>55.783000000000001</v>
       </c>
       <c r="F44" s="16">
         <f>+[39]Main!$H$4</f>
-        <v>6240.5541999999996</v>
+        <v>3046.7200813140003</v>
       </c>
       <c r="G44" s="16">
         <f>+[39]Main!$H$6-[39]Main!$H$5</f>
-        <v>1311.9879999999998</v>
+        <v>1178.5010000000002</v>
       </c>
       <c r="H44" s="16">
         <f>F44+G44</f>
-        <v>7552.5421999999999</v>
+        <v>4225.2210813140009</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J44" s="15">
         <v>45869</v>
@@ -9148,7 +9235,7 @@
         <v>2002</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -9157,13 +9244,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" t="s">
         <v>325</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D45" t="s">
-        <v>326</v>
       </c>
       <c r="E45" s="7">
         <f>+[40]Main!$I$2</f>
@@ -9182,7 +9269,7 @@
         <v>5904.7703999999994</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J45" s="15">
         <v>45804</v>
@@ -9207,7 +9294,7 @@
         <v>1956</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -9216,13 +9303,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" s="7">
         <f>+[41]Main!$I$2</f>
@@ -9241,7 +9328,7 @@
         <v>5494.8536640000002</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J46" s="15">
         <v>45807</v>
@@ -9265,7 +9352,7 @@
         <v>1981</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -9274,10 +9361,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D47" t="s">
         <v>107</v>
@@ -9299,7 +9386,7 @@
         <v>5335.7607539999999</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K47" s="16"/>
       <c r="M47" s="16"/>
@@ -9325,13 +9412,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E48" s="7">
         <f>+[43]Main!$H$2</f>
@@ -9350,7 +9437,7 @@
         <v>2855.5218079360006</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J48" s="15">
         <v>45733</v>
@@ -9372,7 +9459,7 @@
       <c r="AB48" s="16"/>
       <c r="AC48" s="16"/>
       <c r="AE48" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
@@ -9384,10 +9471,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E49" s="7">
         <f>+[44]Main!$I$2</f>
@@ -9406,7 +9493,7 @@
         <v>6839.1686444620009</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K49" s="16"/>
       <c r="M49" s="16"/>
@@ -9432,10 +9519,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -9457,7 +9544,7 @@
         <v>6232.0830247999993</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J50" s="15">
         <v>45889</v>
@@ -9489,18 +9576,18 @@
         <v>35</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
         <v>82</v>
       </c>
       <c r="E51" s="7">
         <f>+[46]Main!$I$2</f>
-        <v>24.59</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F51" s="16">
         <f>+[46]Main!$I$4*FX!C3</f>
-        <v>3786.9386880000002</v>
+        <v>3141.6652800000002</v>
       </c>
       <c r="G51" s="16">
         <f>+([46]Main!$I$6-[46]Main!$I$5)*FX!C3</f>
@@ -9508,10 +9595,10 @@
       </c>
       <c r="H51" s="16">
         <f t="shared" si="3"/>
-        <v>4851.1706880000002</v>
+        <v>4205.8972800000001</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J51" s="15">
         <v>45869</v>
@@ -9536,7 +9623,7 @@
         <v>1948</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -9548,10 +9635,10 @@
         <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E52" s="7">
         <f>+[47]Main!$I$2</f>
@@ -9570,7 +9657,7 @@
         <v>4617.6524520000003</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J52" s="15">
         <v>45833</v>
@@ -9629,7 +9716,7 @@
         <v>4178.4925000000003</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J53" s="15">
         <v>45805</v>
@@ -9703,7 +9790,7 @@
         <v>3878.4726000000001</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J54" s="15">
         <v>45771</v>
@@ -9762,7 +9849,7 @@
         <v>5357.9697919999999</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J55" s="15">
         <v>45896</v>
@@ -9799,10 +9886,10 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="7">
         <f>+[51]Sheet1!$I$2</f>
@@ -9821,7 +9908,7 @@
         <v>3556.0594297651505</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J56" s="15">
         <v>45812</v>
@@ -9846,7 +9933,7 @@
         <v>1985</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -9858,18 +9945,18 @@
         <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" s="7">
         <f>+[52]Main!$I$2</f>
-        <v>9.48</v>
+        <v>12.835000000000001</v>
       </c>
       <c r="F57" s="16">
         <f>+[52]Main!$I$4*FX!C3</f>
-        <v>3533.53728</v>
+        <v>4784.0665600000002</v>
       </c>
       <c r="G57" s="16">
         <f>+([52]Main!$I$6-[52]Main!$I$5)*FX!C3</f>
@@ -9877,10 +9964,10 @@
       </c>
       <c r="H57" s="16">
         <f>+F57+G57</f>
-        <v>3564.7372799999998</v>
+        <v>4815.26656</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J57" s="15">
         <v>45974</v>
@@ -9909,10 +9996,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -9934,7 +10021,7 @@
         <v>4041.6143400000001</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J58" s="15">
         <v>45791</v>
@@ -9959,7 +10046,7 @@
         <v>1978</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -9968,10 +10055,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -9993,7 +10080,7 @@
         <v>4493.6961148800001</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="16"/>
@@ -10016,7 +10103,7 @@
         <v>2019</v>
       </c>
       <c r="AE59" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -10025,10 +10112,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -10063,7 +10150,7 @@
       <c r="AB60" s="16"/>
       <c r="AC60" s="16"/>
       <c r="AE60" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -10075,10 +10162,10 @@
         <v>50</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E61" s="7">
         <f>+[56]Main!$J$2</f>
@@ -10097,7 +10184,7 @@
         <v>4047.9972149999999</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K61" s="16"/>
       <c r="M61" s="16"/>
@@ -10123,10 +10210,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -10148,7 +10235,7 @@
         <v>3688.6548861900005</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K62" s="16"/>
       <c r="M62" s="16"/>
@@ -10177,32 +10264,32 @@
         <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
       </c>
       <c r="E63" s="7">
         <f>+[58]Main!$J$2</f>
-        <v>38.450000000000003</v>
+        <v>41.48</v>
       </c>
       <c r="F63" s="16">
         <f>+[58]Main!$J$4*FX!C3</f>
-        <v>2815.1552000000006</v>
+        <v>3036.9996799999999</v>
       </c>
       <c r="G63" s="16">
         <f>+([58]Main!$J$6-[58]Main!$J$5)*FX!C3</f>
-        <v>228.8</v>
+        <v>201.76000000000002</v>
       </c>
       <c r="H63" s="16">
         <f>+F63+G63</f>
-        <v>3043.9552000000008</v>
+        <v>3238.7596800000001</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>438</v>
+        <v>149</v>
       </c>
       <c r="J63" s="15">
-        <v>45874</v>
+        <v>45965</v>
       </c>
       <c r="K63" s="16"/>
       <c r="M63" s="16"/>
@@ -10253,7 +10340,7 @@
         <v>2682.3947600000001</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J64" s="15">
         <v>45789</v>
@@ -10282,10 +10369,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -10307,7 +10394,7 @@
         <v>2596.4655860499997</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J65" s="15">
         <v>45723</v>
@@ -10336,13 +10423,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E66" s="7">
         <f>+[61]Main!$I$2</f>
@@ -10361,7 +10448,7 @@
         <v>3003.3278194628492</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K66" s="16"/>
       <c r="M66" s="16"/>
@@ -10387,10 +10474,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -10412,7 +10499,7 @@
         <v>4007.9694340999999</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J67" s="15">
         <v>45722</v>
@@ -10434,7 +10521,7 @@
         <v>1977</v>
       </c>
       <c r="AE67" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -10468,7 +10555,7 @@
         <v>2555.9634897599999</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K68" s="16"/>
       <c r="M68" s="16"/>
@@ -10494,13 +10581,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E69" s="7">
         <f>+[64]Main!$I$2</f>
@@ -10519,7 +10606,7 @@
         <v>3379.4005512499998</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J69" s="15">
         <v>45805</v>
@@ -10544,7 +10631,7 @@
         <v>1981</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -10559,7 +10646,7 @@
         <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E70" s="7">
         <f>+[65]Main!$J$2</f>
@@ -10578,7 +10665,7 @@
         <v>2533.9646264192002</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J70" s="15">
         <v>45743</v>
@@ -10607,13 +10694,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="7">
         <f>+[66]Main!$J$2</f>
@@ -10632,7 +10719,7 @@
         <v>2212.7803711287997</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J71" s="15">
         <v>45776</v>
@@ -11038,7 +11125,7 @@
         <v>4026.2967514399998</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K83" s="16"/>
       <c r="M83" s="16"/>
@@ -11128,13 +11215,13 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" t="s">
         <v>156</v>
-      </c>
-      <c r="D86" t="s">
-        <v>157</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -11163,13 +11250,13 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" t="s">
         <v>159</v>
-      </c>
-      <c r="D87" t="s">
-        <v>160</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -11198,13 +11285,13 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -11233,10 +11320,10 @@
         <v>84</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -11258,7 +11345,7 @@
         <v>1576.7592650000001</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K89" s="16"/>
       <c r="M89" s="16"/>
@@ -11284,10 +11371,10 @@
         <v>85</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -11309,7 +11396,7 @@
         <v>1610.0571035199996</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K90" s="16"/>
       <c r="M90" s="16"/>
@@ -11335,10 +11422,10 @@
         <v>86</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -11360,7 +11447,7 @@
         <v>1504.9194085300001</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K91" s="16"/>
       <c r="M91" s="16"/>
@@ -11382,7 +11469,7 @@
         <v>2003</v>
       </c>
       <c r="AE91" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -11391,13 +11478,13 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
         <v>172</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" t="s">
-        <v>173</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -11426,13 +11513,13 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -11461,10 +11548,10 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
@@ -11496,10 +11583,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
@@ -11521,7 +11608,7 @@
         <v>1307.5021584900001</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K95" s="16"/>
       <c r="M95" s="16"/>
@@ -11547,10 +11634,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -11572,7 +11659,7 @@
         <v>990.49582505000001</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K96" s="16"/>
       <c r="M96" s="16"/>
@@ -11598,32 +11685,32 @@
         <v>92</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
         <v>107</v>
       </c>
       <c r="E97" s="7">
         <f>+[73]Main!$J$2</f>
-        <v>12.42</v>
+        <v>15.34</v>
       </c>
       <c r="F97" s="16">
         <f>+[73]Main!$J$4*FX!C13</f>
-        <v>829.73151533879991</v>
+        <v>1025.7928231121998</v>
       </c>
       <c r="G97" s="16">
         <f>+([73]Main!$J$6-[73]Main!$J$5)*FX!C13</f>
-        <v>54.234000000000009</v>
+        <v>152.28300000000002</v>
       </c>
       <c r="H97" s="16">
         <f>+F97+G97</f>
-        <v>883.96551533879995</v>
+        <v>1178.0758231121999</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>335</v>
+        <v>724</v>
       </c>
       <c r="J97" s="15"/>
       <c r="K97" s="16"/>
@@ -11650,13 +11737,13 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" t="s">
         <v>185</v>
-      </c>
-      <c r="D98" t="s">
-        <v>186</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -11685,13 +11772,13 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" t="s">
         <v>188</v>
-      </c>
-      <c r="D99" t="s">
-        <v>189</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -11720,10 +11807,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D100" t="s">
         <v>21</v>
@@ -11745,7 +11832,7 @@
         <v>500.70656488999998</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K100" s="16"/>
       <c r="M100" s="16"/>
@@ -11771,10 +11858,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
@@ -11796,7 +11883,7 @@
         <v>1117.88369158</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K101" s="16"/>
       <c r="M101" s="16"/>
@@ -11822,13 +11909,13 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -11857,13 +11944,13 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" t="s">
         <v>197</v>
-      </c>
-      <c r="D103" t="s">
-        <v>198</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
@@ -11892,13 +11979,13 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -11927,13 +12014,13 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -11962,13 +12049,13 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -11997,13 +12084,13 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
@@ -12032,10 +12119,10 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -12067,13 +12154,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -12102,10 +12189,10 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D110" t="s">
         <v>82</v>
@@ -12137,13 +12224,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" t="s">
         <v>214</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D111" t="s">
-        <v>215</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -12172,10 +12259,10 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="D112" t="s">
         <v>21</v>
@@ -12207,13 +12294,13 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" t="s">
         <v>219</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D113" t="s">
-        <v>220</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -12242,13 +12329,13 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" t="s">
         <v>223</v>
-      </c>
-      <c r="D114" t="s">
-        <v>224</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
@@ -12277,10 +12364,10 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D115" t="s">
         <v>109</v>
@@ -12312,13 +12399,13 @@
         <v>111</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E116" s="7">
         <f>+'[76]Main '!$F$2</f>
@@ -12357,13 +12444,13 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="D117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -12392,13 +12479,13 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="D118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -12427,13 +12514,13 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="D119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -12462,13 +12549,13 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" t="s">
         <v>235</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D120" t="s">
-        <v>236</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -12497,13 +12584,13 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -12532,13 +12619,13 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -12567,10 +12654,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D123" t="s">
         <v>21</v>
@@ -12592,7 +12679,7 @@
         <v>654.7261062</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K123" s="16"/>
       <c r="M123" s="16"/>
@@ -12618,13 +12705,13 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" t="s">
         <v>245</v>
-      </c>
-      <c r="D124" t="s">
-        <v>246</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -12653,10 +12740,10 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -12688,13 +12775,13 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -12723,10 +12810,10 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
@@ -12758,13 +12845,13 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="D128" t="s">
         <v>254</v>
-      </c>
-      <c r="D128" t="s">
-        <v>255</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -12793,13 +12880,13 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="D129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -12828,10 +12915,10 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -12860,13 +12947,13 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
@@ -12895,10 +12982,10 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
@@ -12930,13 +13017,13 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="D133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -12965,10 +13052,10 @@
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
@@ -13000,10 +13087,10 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -13035,13 +13122,13 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -13070,13 +13157,13 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="D137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -13102,13 +13189,13 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="D138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -13137,10 +13224,10 @@
         <v>134</v>
       </c>
       <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -13172,13 +13259,13 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="D140" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -13207,10 +13294,10 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D141" t="s">
         <v>21</v>
@@ -13242,13 +13329,13 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="D142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -13277,10 +13364,10 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D143" t="s">
         <v>21</v>
@@ -13312,10 +13399,10 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D144" t="s">
         <v>109</v>
@@ -13347,10 +13434,10 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D145" t="s">
         <v>21</v>
@@ -13382,10 +13469,10 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D146" t="s">
         <v>21</v>
@@ -13416,10 +13503,10 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D147" t="s">
         <v>100</v>
@@ -13448,13 +13535,13 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" t="s">
         <v>294</v>
-      </c>
-      <c r="D148" t="s">
-        <v>295</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -13480,10 +13567,10 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D149" t="s">
         <v>21</v>
@@ -13512,10 +13599,10 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D150" t="s">
         <v>82</v>
@@ -13544,10 +13631,10 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D151" t="s">
         <v>21</v>
@@ -13576,10 +13663,10 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D152" t="s">
         <v>21</v>
@@ -13608,13 +13695,13 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -13640,13 +13727,13 @@
         <v>149</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E154" s="7">
         <f>+[78]Main!$I$2</f>
@@ -13665,7 +13752,7 @@
         <v>285.95973709800001</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q154" s="18"/>
       <c r="R154" s="18"/>
@@ -13688,10 +13775,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D155" t="s">
         <v>21</v>
@@ -13713,7 +13800,7 @@
         <v>1627.5316492799998</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q155" s="18"/>
       <c r="R155" s="18"/>
@@ -13736,13 +13823,13 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D156" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
@@ -13768,10 +13855,10 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D157" t="s">
         <v>21</v>
@@ -13800,13 +13887,13 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
@@ -13832,10 +13919,10 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D159" t="s">
         <v>21</v>
@@ -13864,13 +13951,13 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D160" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
@@ -13896,13 +13983,13 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -13928,13 +14015,13 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -13960,10 +14047,10 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D163" t="s">
         <v>21</v>
@@ -13992,10 +14079,10 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D164" t="s">
         <v>21</v>
@@ -14024,13 +14111,13 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -14056,13 +14143,13 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
+        <v>508</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="D166" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -14088,10 +14175,10 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D167" t="s">
         <v>21</v>
@@ -14120,13 +14207,13 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
@@ -14152,10 +14239,10 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D169" t="s">
         <v>21</v>
@@ -14184,10 +14271,10 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D170" t="s">
         <v>21</v>
@@ -14216,13 +14303,13 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D171" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -14248,13 +14335,13 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
+        <v>520</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="D172" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -14280,10 +14367,10 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D173" t="s">
         <v>21</v>
@@ -14312,10 +14399,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D174" t="s">
         <v>21</v>
@@ -14344,10 +14431,10 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D175" t="s">
         <v>21</v>
@@ -14376,10 +14463,10 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D176" t="s">
         <v>21</v>
@@ -14408,10 +14495,10 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D177" t="s">
         <v>21</v>
@@ -14440,13 +14527,13 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D178" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
@@ -14472,10 +14559,10 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D179" t="s">
         <v>21</v>
@@ -14504,10 +14591,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
@@ -14536,10 +14623,10 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D181" t="s">
         <v>21</v>
@@ -14582,12 +14669,6 @@
       <c r="AE182" s="5"/>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B183" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
       <c r="Q183" s="18"/>
       <c r="R183" s="18"/>
       <c r="S183" s="18"/>
@@ -14604,21 +14685,6 @@
       <c r="AE183" s="5"/>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>129</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D184" t="s">
-        <v>82</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F184" s="16"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="16"/>
       <c r="Q184" s="18"/>
       <c r="R184" s="18"/>
       <c r="S184" s="18"/>
@@ -14636,27 +14702,10 @@
         <v>2014</v>
       </c>
       <c r="AE184" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>424</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D185" t="s">
-        <v>220</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="23" t="s">
-        <v>446</v>
-      </c>
       <c r="Q185" s="18"/>
       <c r="R185" s="18"/>
       <c r="S185" s="18"/>
@@ -14673,15 +14722,6 @@
       <c r="AE185" s="5"/>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>440</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
       <c r="Q186" s="18"/>
       <c r="R186" s="18"/>
       <c r="S186" s="18"/>
@@ -14698,21 +14738,6 @@
       <c r="AE186" s="5"/>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>483</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D187" t="s">
-        <v>125</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
       <c r="Q187" s="18"/>
       <c r="R187" s="18"/>
       <c r="S187" s="18"/>
@@ -14729,12 +14754,6 @@
       <c r="AE187" s="5"/>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>687</v>
-      </c>
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="16"/>
       <c r="Q188" s="18"/>
       <c r="R188" s="18"/>
       <c r="S188" s="18"/>
@@ -14751,12 +14770,6 @@
       <c r="AE188" s="5"/>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>688</v>
-      </c>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
       <c r="J189" s="15"/>
       <c r="Q189" s="18"/>
       <c r="R189" s="18"/>
@@ -14774,12 +14787,6 @@
       <c r="AE189" s="5"/>
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>689</v>
-      </c>
-      <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
-      <c r="H190" s="16"/>
       <c r="J190" s="15"/>
       <c r="Q190" s="18"/>
       <c r="R190" s="18"/>
@@ -14797,12 +14804,6 @@
       <c r="AE190" s="5"/>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>690</v>
-      </c>
-      <c r="F191" s="16"/>
-      <c r="G191" s="16"/>
-      <c r="H191" s="16"/>
       <c r="J191" s="15"/>
       <c r="Q191" s="18"/>
       <c r="R191" s="18"/>
@@ -14820,12 +14821,6 @@
       <c r="AE191" s="5"/>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>691</v>
-      </c>
-      <c r="F192" s="16"/>
-      <c r="G192" s="16"/>
-      <c r="H192" s="16"/>
       <c r="Q192" s="18"/>
       <c r="R192" s="18"/>
       <c r="S192" s="18"/>
@@ -14841,13 +14836,7 @@
       <c r="AC192" s="16"/>
       <c r="AE192" s="5"/>
     </row>
-    <row r="193" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>692</v>
-      </c>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="16"/>
+    <row r="193" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q193" s="18"/>
       <c r="R193" s="18"/>
       <c r="S193" s="18"/>
@@ -14863,13 +14852,7 @@
       <c r="AC193" s="16"/>
       <c r="AE193" s="5"/>
     </row>
-    <row r="194" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>693</v>
-      </c>
-      <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="16"/>
+    <row r="194" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q194" s="18"/>
       <c r="R194" s="18"/>
       <c r="S194" s="18"/>
@@ -14885,14 +14868,7 @@
       <c r="AC194" s="16"/>
       <c r="AE194" s="5"/>
     </row>
-    <row r="195" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>694</v>
-      </c>
-      <c r="C195"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16"/>
+    <row r="195" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q195" s="18"/>
       <c r="R195" s="18"/>
       <c r="S195" s="18"/>
@@ -14908,13 +14884,7 @@
       <c r="AC195" s="16"/>
       <c r="AE195" s="5"/>
     </row>
-    <row r="196" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>695</v>
-      </c>
-      <c r="F196" s="16"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16"/>
+    <row r="196" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q196" s="18"/>
       <c r="R196" s="18"/>
       <c r="S196" s="18"/>
@@ -14930,13 +14900,7 @@
       <c r="AC196" s="16"/>
       <c r="AE196" s="5"/>
     </row>
-    <row r="197" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>696</v>
-      </c>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
+    <row r="197" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q197" s="18"/>
       <c r="R197" s="18"/>
       <c r="S197" s="18"/>
@@ -14952,13 +14916,7 @@
       <c r="AC197" s="16"/>
       <c r="AE197" s="5"/>
     </row>
-    <row r="198" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>697</v>
-      </c>
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
+    <row r="198" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q198" s="18"/>
       <c r="R198" s="18"/>
       <c r="S198" s="18"/>
@@ -14974,13 +14932,7 @@
       <c r="AC198" s="16"/>
       <c r="AE198" s="5"/>
     </row>
-    <row r="199" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>705</v>
-      </c>
-      <c r="F199" s="16"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
+    <row r="199" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q199" s="18"/>
       <c r="R199" s="18"/>
       <c r="S199" s="18"/>
@@ -14996,13 +14948,7 @@
       <c r="AC199" s="16"/>
       <c r="AE199" s="5"/>
     </row>
-    <row r="200" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>702</v>
-      </c>
-      <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
+    <row r="200" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q200" s="18"/>
       <c r="R200" s="18"/>
       <c r="S200" s="18"/>
@@ -15018,10 +14964,7 @@
       <c r="AC200" s="16"/>
       <c r="AE200" s="5"/>
     </row>
-    <row r="201" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F201" s="16"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16"/>
+    <row r="201" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q201" s="18"/>
       <c r="R201" s="18"/>
       <c r="S201" s="18"/>
@@ -15037,10 +14980,7 @@
       <c r="AC201" s="16"/>
       <c r="AE201" s="5"/>
     </row>
-    <row r="202" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F202" s="16"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
+    <row r="202" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q202" s="18"/>
       <c r="R202" s="18"/>
       <c r="S202" s="18"/>
@@ -15056,10 +14996,7 @@
       <c r="AC202" s="16"/>
       <c r="AE202" s="5"/>
     </row>
-    <row r="203" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
+    <row r="203" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q203" s="18"/>
       <c r="R203" s="18"/>
       <c r="S203" s="18"/>
@@ -15075,10 +15012,7 @@
       <c r="AC203" s="16"/>
       <c r="AE203" s="5"/>
     </row>
-    <row r="204" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="F204" s="16"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
+    <row r="204" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q204" s="18"/>
       <c r="R204" s="18"/>
       <c r="S204" s="18"/>
@@ -15094,11 +15028,7 @@
       <c r="AC204" s="5"/>
       <c r="AE204" s="5"/>
     </row>
-    <row r="205" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C205" s="4"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
+    <row r="205" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q205" s="18"/>
       <c r="R205" s="18"/>
       <c r="S205" s="18"/>
@@ -15114,7 +15044,7 @@
       <c r="AC205" s="5"/>
       <c r="AE205" s="5"/>
     </row>
-    <row r="206" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:31" x14ac:dyDescent="0.25">
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
       <c r="H206" s="16"/>
@@ -15133,7 +15063,7 @@
       <c r="AC206" s="5"/>
       <c r="AE206" s="5"/>
     </row>
-    <row r="207" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:31" x14ac:dyDescent="0.25">
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
       <c r="H207" s="16"/>
@@ -15152,7 +15082,7 @@
       <c r="AC207" s="5"/>
       <c r="AE207" s="5"/>
     </row>
-    <row r="208" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:31" x14ac:dyDescent="0.25">
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
       <c r="H208" s="16"/>
@@ -15306,13 +15236,415 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA7C47F-1AC4-4057-B9F0-395F82201EB4}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7A8A7424-EC50-4E3D-BBB6-97F1BE50C49D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEACE1C4-97F2-4C2B-8888-284E30CF8393}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC56C3-8711-45A1-8A34-862C4185F0B3}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>692</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>702</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E02671F-4BBD-43BB-896A-19D7F7B39821}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E0551-CB3F-4934-973D-CF415D563A72}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15324,7 +15656,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -15353,22 +15685,22 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>95</v>
       </c>
       <c r="M3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>89</v>
@@ -15410,13 +15742,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC3" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AD3" s="35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -15424,7 +15756,7 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -15468,13 +15800,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -15486,13 +15818,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -15504,7 +15836,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -15525,10 +15857,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -15540,7 +15872,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -15558,13 +15890,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -15576,7 +15908,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -15600,7 +15932,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -15612,13 +15944,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" t="s">
         <v>313</v>
       </c>
-      <c r="C14" t="s">
-        <v>314</v>
-      </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -15630,13 +15962,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -15651,7 +15983,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
@@ -15684,10 +16016,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -15702,10 +16034,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -15720,10 +16052,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -15745,7 +16077,7 @@
         <v>14232.185028799999</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -15754,13 +16086,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -15772,13 +16104,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -15790,16 +16122,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15811,10 +16143,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C24" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -15829,10 +16161,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -15847,7 +16179,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -15865,10 +16197,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -15883,13 +16215,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C28" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -15901,13 +16233,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -15919,10 +16251,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -15937,10 +16269,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -15955,10 +16287,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -15973,13 +16305,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -15991,10 +16323,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C34" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -16009,10 +16341,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>717</v>
+      </c>
+      <c r="C35" t="s">
         <v>720</v>
-      </c>
-      <c r="C35" t="s">
-        <v>723</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -16027,10 +16359,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C36" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -16118,12 +16450,12 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -16152,22 +16484,22 @@
         <v>6</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>95</v>
       </c>
       <c r="M3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>89</v>
@@ -16209,13 +16541,13 @@
         <v>79</v>
       </c>
       <c r="AB3" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC3" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AD3" s="35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE3" s="33" t="s">
         <v>96</v>
@@ -16223,7 +16555,7 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -16252,7 +16584,7 @@
         <v>139212</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J4" s="15">
         <v>45798</v>
@@ -16310,7 +16642,7 @@
         <v>1987</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -16319,10 +16651,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -16340,7 +16672,7 @@
         <v>19435.35525072</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="15">
         <v>45723</v>
@@ -16368,7 +16700,7 @@
         <v>1972</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -16377,13 +16709,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="7">
         <v>101.55</v>
@@ -16398,7 +16730,7 @@
         <v>16751.988568000001</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="15">
         <v>45736</v>
@@ -16426,7 +16758,7 @@
         <v>1864</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -16435,10 +16767,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -16456,7 +16788,7 @@
         <v>7791.6072000000004</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -16482,7 +16814,7 @@
         <v>2008</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -16491,13 +16823,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
         <v>325</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" t="s">
-        <v>326</v>
       </c>
       <c r="E8" s="7">
         <v>27.8</v>
@@ -16512,7 +16844,7 @@
         <v>5904.7703999999994</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J8" s="15">
         <v>45804</v>
@@ -16540,7 +16872,7 @@
         <v>1956</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -16549,10 +16881,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -16591,7 +16923,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="22"/>
       <c r="AE9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -16600,10 +16932,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -16621,7 +16953,7 @@
         <v>4007.9694340999999</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J10" s="15">
         <v>45722</v>
@@ -16649,7 +16981,7 @@
         <v>1977</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -16658,10 +16990,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -16679,7 +17011,7 @@
         <v>1504.9194085300001</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="9"/>
@@ -16704,7 +17036,7 @@
         <v>2003</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -16727,8 +17059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2AF2D-0F5F-41CB-A4FA-60433C4DB52C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16740,23 +17072,23 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>19</v>
@@ -16774,10 +17106,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="40"/>
@@ -16795,10 +17127,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -16820,7 +17152,7 @@
         <v>129077.88982951202</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J4" s="15">
         <v>45770</v>
@@ -16863,7 +17195,7 @@
         <v>95429.722976000019</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J5" s="15">
         <v>45975</v>
@@ -16881,10 +17213,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -16906,7 +17238,7 @@
         <v>27510.653210200002</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="7"/>
@@ -16922,32 +17254,32 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="7">
         <f>+[84]Main!$I$3</f>
-        <v>148.05000000000001</v>
+        <v>140.1</v>
       </c>
       <c r="F7" s="16">
         <f>+[84]Main!$I$5*FX!C7</f>
-        <v>8556.8152924800015</v>
+        <v>8097.3307833600002</v>
       </c>
       <c r="G7" s="16">
         <f>+([84]Main!$I$7-[84]Main!$I$6)*FX!C7</f>
-        <v>-1538.88</v>
+        <v>-1219.68</v>
       </c>
       <c r="H7" s="16">
         <f>+F7+G7</f>
-        <v>7017.9352924800014</v>
+        <v>6877.6507833599999</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -16963,13 +17295,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="16"/>
@@ -16989,13 +17321,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>144</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="16"/>
@@ -17015,13 +17347,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -17041,10 +17373,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -17067,13 +17399,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16"/>
@@ -17093,10 +17425,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -17119,13 +17451,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16"/>
@@ -17145,13 +17477,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" t="s">
         <v>352</v>
-      </c>
-      <c r="D15" t="s">
-        <v>353</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16"/>
@@ -17171,13 +17503,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" t="s">
         <v>354</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D16" t="s">
-        <v>355</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16"/>
@@ -17197,13 +17529,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="16"/>
@@ -17223,10 +17555,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
@@ -17249,13 +17581,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="16"/>
@@ -17275,13 +17607,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="16"/>
@@ -17301,13 +17633,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -17327,10 +17659,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -17353,13 +17685,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="16"/>
@@ -17379,13 +17711,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16"/>
@@ -17405,13 +17737,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16"/>
@@ -17431,10 +17763,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
@@ -17457,10 +17789,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -17480,10 +17812,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -17503,13 +17835,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E29" s="7"/>
       <c r="I29" s="10"/>
@@ -17526,10 +17858,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E30" s="7"/>
       <c r="I30" s="10"/>
@@ -17546,13 +17878,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="7"/>
       <c r="I31" s="10"/>
@@ -17569,10 +17901,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -17584,10 +17916,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -17599,13 +17931,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -17614,10 +17946,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -17629,10 +17961,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -17644,10 +17976,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -17659,13 +17991,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -17674,13 +18006,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -17689,13 +18021,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -17704,10 +18036,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
@@ -17719,10 +18051,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -17734,13 +18066,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -17749,10 +18081,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -17764,10 +18096,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D45" t="s">
         <v>85</v>
@@ -17779,10 +18111,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C46" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -17794,10 +18126,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C47" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
@@ -17809,10 +18141,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C48" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D48" t="s">
         <v>100</v>
@@ -17824,10 +18156,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -17839,10 +18171,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C50" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -17854,10 +18186,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C51" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
@@ -17869,13 +18201,13 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C52" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -17884,13 +18216,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C53" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -17899,13 +18231,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
+        <v>582</v>
+      </c>
+      <c r="C54" t="s">
+        <v>583</v>
+      </c>
+      <c r="D54" t="s">
         <v>585</v>
-      </c>
-      <c r="C54" t="s">
-        <v>586</v>
-      </c>
-      <c r="D54" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -17952,7 +18284,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -17963,7 +18295,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -17974,10 +18306,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -17989,10 +18321,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -18004,10 +18336,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -18019,13 +18351,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -18034,10 +18366,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -18049,10 +18381,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -18064,10 +18396,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -18079,10 +18411,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -18094,10 +18426,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -18109,10 +18441,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -18124,10 +18456,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -18139,13 +18471,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -18154,10 +18486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -18169,13 +18501,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -18184,13 +18516,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D17" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -18199,10 +18531,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -18214,13 +18546,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C19" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -18229,13 +18561,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -18244,7 +18576,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -18253,13 +18585,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -18268,13 +18600,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D23" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -18283,13 +18615,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -18298,13 +18630,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -18313,10 +18645,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C26" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -18328,10 +18660,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C27" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -18343,10 +18675,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C28" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -18358,10 +18690,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C29" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D29" t="s">
         <v>109</v>
@@ -18373,13 +18705,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C30" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -18388,13 +18720,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C31" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -18403,10 +18735,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C32" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -18418,10 +18750,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -18433,10 +18765,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C34" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -18448,10 +18780,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C35" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -18463,13 +18795,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C36" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -18478,13 +18810,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C37" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D37" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -18493,10 +18825,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C38" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -18508,13 +18840,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C39" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -18523,10 +18855,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -18538,10 +18870,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C41" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -18553,13 +18885,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C42" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D42" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -18568,13 +18900,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C43" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -18583,13 +18915,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C44" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D44" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -18598,10 +18930,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C45" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -18613,10 +18945,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C46" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -18628,10 +18960,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C47" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -18668,82 +19000,82 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" t="s">
         <v>427</v>
-      </c>
-      <c r="C3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
         <v>428</v>
-      </c>
-      <c r="C4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -18767,13 +19099,13 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="11">
         <v>1.04</v>
@@ -18781,7 +19113,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11">
         <v>9.5000000000000001E-2</v>
@@ -18789,7 +19121,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="11">
         <v>6.3E-3</v>
@@ -18797,7 +19129,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="11">
         <v>0.14000000000000001</v>
@@ -18805,7 +19137,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="11">
         <v>1.1200000000000001</v>
@@ -18813,7 +19145,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" s="11">
         <v>1.24</v>
@@ -18821,7 +19153,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="11">
         <v>0.14000000000000001</v>
@@ -18829,7 +19161,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="11">
         <v>0.92</v>
@@ -18837,7 +19169,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C11" s="11">
         <v>0.25</v>
@@ -18845,7 +19177,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C12" s="11">
         <v>1.0999999999999999E-2</v>
@@ -18853,7 +19185,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13" s="11">
         <v>0.69</v>
@@ -18861,7 +19193,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C14" s="11">
         <v>5.3999999999999999E-2</v>
@@ -18869,7 +19201,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C15" s="11">
         <v>0.03</v>
@@ -18878,4 +19210,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B358B9-0FBA-4749-BEFA-4DF05274EAFA}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="D3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E3" s="41">
+        <v>45757</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E4" s="41">
+        <v>45782</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E5" s="41">
+        <v>45637</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{996B57F6-8038-47F6-A248-0F268F1ACEFB}"/>
+    <hyperlink ref="C4" r:id="rId1" display="SKX" xr:uid="{8E2CF5BB-29AF-4437-8F96-D294155BB64C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{2A12F8E0-FB6F-4E0D-B2A9-CED87F005A2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFC785-D7A1-4C39-9C5A-5C5205487E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93047F-D315-43C3-8CC1-B6EA47899A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3164,7 +3164,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3184,22 +3184,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>3518</v>
+            <v>4245</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>2542170.8592619998</v>
+            <v>3117877.0918199997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>201726</v>
+            <v>124662</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>62500</v>
+            <v>60000</v>
           </cell>
         </row>
       </sheetData>
@@ -3521,7 +3521,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3582,24 +3582,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>10706.264514</v>
+        <row r="3">
+          <cell r="I3">
+            <v>42.33</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>235.399</v>
+            <v>7893.6705468599994</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1200.595</v>
+            <v>261.834</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>1181.6599999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -5704,26 +5704,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="K2">
-            <v>218.5</v>
+            <v>216.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="K4">
-            <v>88227.451415500007</v>
+            <v>87244.720979000005</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>122.395</v>
+            <v>263.97300000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>2657.7709999999997</v>
+            <v>2424.9989999999998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5942,12 +5942,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="H3">
-            <v>137</v>
+            <v>147.19999999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>44808.661376999997</v>
+            <v>48144.780691199994</v>
           </cell>
         </row>
         <row r="6">
@@ -5961,7 +5961,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6287,10 +6287,10 @@
   <dimension ref="A1:AH212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,15 +6454,15 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1772611.5274026662</v>
+        <v>1775666.7678196561</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>17323.171805200011</v>
+        <v>17371.390205200008</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1789934.6992078661</v>
+        <v>1793038.1580248559</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6510,15 +6510,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23020.928927307352</v>
+        <v>23060.607374281248</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>224.97625721038975</v>
+        <v>225.60247019740271</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23245.905184517742</v>
+        <v>23286.209844478646</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -7238,25 +7238,25 @@
       </c>
       <c r="E13" s="7">
         <f>+[8]Main!$K$2</f>
-        <v>218.5</v>
+        <v>216.5</v>
       </c>
       <c r="F13" s="16">
         <f>+[8]Main!$K$4</f>
-        <v>88227.451415500007</v>
+        <v>87244.720979000005</v>
       </c>
       <c r="G13" s="16">
         <f>+[8]Main!$K$6-[8]Main!$K$5</f>
-        <v>2535.3759999999997</v>
+        <v>2161.0259999999998</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="1"/>
-        <v>90762.827415500011</v>
+        <v>89405.746979000003</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>334</v>
+        <v>722</v>
       </c>
       <c r="J13" s="15">
-        <v>45853</v>
+        <v>45924</v>
       </c>
       <c r="K13" s="16">
         <v>8815.7999999999993</v>
@@ -7312,11 +7312,11 @@
       </c>
       <c r="E14" s="7">
         <f>+[9]Main!$H$3</f>
-        <v>137</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="F14" s="16">
         <f>+[9]Main!$H$5</f>
-        <v>44808.661376999997</v>
+        <v>48144.780691199994</v>
       </c>
       <c r="G14" s="16">
         <f>+[9]Main!$H$7-[9]Main!$H$6</f>
@@ -7324,13 +7324,13 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" si="1"/>
-        <v>42540.957376999999</v>
+        <v>45877.076691199996</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>436</v>
       </c>
       <c r="J14" s="15">
-        <v>45799</v>
+        <v>45890</v>
       </c>
       <c r="K14" s="16">
         <v>20376.900000000001</v>
@@ -8104,25 +8104,25 @@
       </c>
       <c r="E26" s="7">
         <f>+[21]Main!$I$2</f>
-        <v>3518</v>
+        <v>4245</v>
       </c>
       <c r="F26" s="16">
         <f>+[21]Main!$I$4*FX!C5</f>
-        <v>16015.676413350599</v>
+        <v>19642.625678466</v>
       </c>
       <c r="G26" s="16">
         <f>+([21]Main!$I$6-[21]Main!$I$5)*FX!C5</f>
-        <v>-877.12379999999996</v>
+        <v>-407.37060000000002</v>
       </c>
       <c r="H26" s="16">
         <f>F26+G26</f>
-        <v>15138.552613350599</v>
+        <v>19235.255078466002</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="J26" s="15">
-        <v>45882</v>
+        <v>45968</v>
       </c>
       <c r="K26" s="16"/>
       <c r="M26" s="16"/>
@@ -8656,26 +8656,26 @@
         <v>82</v>
       </c>
       <c r="E35" s="7">
-        <f>+[30]Main!$I$2</f>
-        <v>57</v>
+        <f>+[30]Main!$I$3</f>
+        <v>42.33</v>
       </c>
       <c r="F35" s="16">
-        <f>+[30]Main!$I$4*FX!C3</f>
-        <v>11134.515094560002</v>
+        <f>+[30]Main!$I$5*FX!C3</f>
+        <v>8209.4173687343991</v>
       </c>
       <c r="G35" s="16">
-        <f>+([30]Main!$I$6-[30]Main!$I$5)*FX!C3</f>
-        <v>1003.80384</v>
+        <f>+([30]Main!$I$7-[30]Main!$I$6)*FX!C3</f>
+        <v>956.61903999999981</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" si="1"/>
-        <v>12138.318934560002</v>
+        <v>9166.0364087343987</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>149</v>
       </c>
       <c r="J35" s="15">
-        <v>45897</v>
+        <v>46009</v>
       </c>
       <c r="K35" s="16"/>
       <c r="M35" s="16"/>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93047F-D315-43C3-8CC1-B6EA47899A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5016140-241B-477D-95C8-DE91858DFFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="225" yWindow="3900" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="808">
   <si>
     <t>Fashion Universe</t>
   </si>
@@ -2398,6 +2398,168 @@
   </si>
   <si>
     <t>GAP</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Amancio</t>
+  </si>
+  <si>
+    <t>CEO of Inditex</t>
+  </si>
+  <si>
+    <t>Miuccia</t>
+  </si>
+  <si>
+    <t>Co-CEO Prada</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armani </t>
+  </si>
+  <si>
+    <t>Girogio</t>
+  </si>
+  <si>
+    <t>Founder of Armani</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Raloh</t>
+  </si>
+  <si>
+    <t>Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Founder of Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Founder of Inditex</t>
+  </si>
+  <si>
+    <t>Pinault</t>
+  </si>
+  <si>
+    <t>Franciose-Henri</t>
+  </si>
+  <si>
+    <t>Former CEO of Kering</t>
+  </si>
+  <si>
+    <t>Yanai</t>
+  </si>
+  <si>
+    <t>Tadashi</t>
+  </si>
+  <si>
+    <t>Chairman</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Founder of Fast Retailing</t>
+  </si>
+  <si>
+    <t>Donatella</t>
+  </si>
+  <si>
+    <t>Creative Director at Versace</t>
+  </si>
+  <si>
+    <t>Blazy</t>
+  </si>
+  <si>
+    <t>Mattieu</t>
+  </si>
+  <si>
+    <t>Wintour</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Vouge</t>
+  </si>
+  <si>
+    <t>Chief Editor</t>
+  </si>
+  <si>
+    <t>Creative Director</t>
+  </si>
+  <si>
+    <t>Neves</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>CEO Farfetch</t>
+  </si>
+  <si>
+    <t>Founded Farfetch</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Tom Ford</t>
+  </si>
+  <si>
+    <t>Saint Lauren</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chanel </t>
+  </si>
+  <si>
+    <t>Gabrielle "Coco"</t>
+  </si>
+  <si>
+    <t>McQueen</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
+  </si>
+  <si>
+    <t>Cristobal</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Lagerfeld</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
+    <t>Vivienne</t>
+  </si>
+  <si>
+    <t>Gianni</t>
+  </si>
+  <si>
+    <t>Former influencial people</t>
   </si>
 </sst>
 </file>
@@ -2729,22 +2891,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>168.1</v>
+            <v>166.9</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>30014.101020399998</v>
+            <v>29799.842119599998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>2455</v>
+            <v>1529</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>2485</v>
+            <v>3100</v>
           </cell>
         </row>
       </sheetData>
@@ -3307,22 +3469,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>38</v>
+            <v>36.65</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>21051.474004000003</v>
+            <v>20355.443827949999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>422.1</v>
+            <v>303.39999999999998</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>928.6</v>
+            <v>934.7</v>
           </cell>
         </row>
       </sheetData>
@@ -3740,12 +3902,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>51.16</v>
+            <v>56.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>7769.9249999999993</v>
+            <v>8580.9375</v>
           </cell>
         </row>
         <row r="5">
@@ -4336,12 +4498,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>97.25</v>
+            <v>96.12</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>4786.0614999999998</v>
+            <v>4730.4496799999997</v>
           </cell>
         </row>
         <row r="5">
@@ -4822,7 +4984,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5723,7 +5885,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5961,7 +6123,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6286,11 +6448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,15 +6616,15 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1775666.7678196561</v>
+        <v>1775503.3090667739</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>17371.390205200008</v>
+        <v>19098.830205200011</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1793038.1580248559</v>
+        <v>1794602.1392719739</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6510,15 +6672,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23060.607374281248</v>
+        <v>23058.484533334726</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>225.60247019740271</v>
+        <v>248.03675591168846</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23286.209844478646</v>
+        <v>23306.521289246415</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -7460,25 +7622,25 @@
       </c>
       <c r="E16" s="7">
         <f>+[11]Main!$I$2</f>
-        <v>168.1</v>
+        <v>166.9</v>
       </c>
       <c r="F16" s="16">
         <f>+[11]Main!$I$4*FX!C3</f>
-        <v>31214.665061215997</v>
+        <v>30991.835804383998</v>
       </c>
       <c r="G16" s="16">
         <f>+([11]Main!$I$6-[11]Main!$I$5)*FX!C3</f>
-        <v>31.200000000000003</v>
+        <v>1633.8400000000001</v>
       </c>
       <c r="H16" s="16">
         <f>F16+G16</f>
-        <v>31245.865061215998</v>
+        <v>32625.675804383998</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>338</v>
       </c>
       <c r="J16" s="15">
-        <v>45868</v>
+        <v>45959</v>
       </c>
       <c r="K16" s="16">
         <f>21427*FX!C3</f>
@@ -8276,25 +8438,25 @@
       </c>
       <c r="E29" s="7">
         <f>+[24]Main!$J$2</f>
-        <v>38</v>
+        <v>36.65</v>
       </c>
       <c r="F29" s="16">
         <f>+[24]Main!$J$4</f>
-        <v>21051.474004000003</v>
+        <v>20355.443827949999</v>
       </c>
       <c r="G29" s="16">
         <f>+[24]Main!$J$6-[24]Main!$J$5</f>
-        <v>506.5</v>
+        <v>631.30000000000007</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="1"/>
-        <v>21557.974004000003</v>
+        <v>20986.743827949998</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>436</v>
+        <v>149</v>
       </c>
       <c r="J29" s="15">
-        <v>45888</v>
+        <v>45979</v>
       </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
@@ -8908,11 +9070,11 @@
       </c>
       <c r="E39" s="7">
         <f>+[34]Main!$I$2</f>
-        <v>51.16</v>
+        <v>56.5</v>
       </c>
       <c r="F39" s="16">
         <f>+[34]Main!$I$4</f>
-        <v>7769.9249999999993</v>
+        <v>8580.9375</v>
       </c>
       <c r="G39" s="16">
         <f>+[34]Main!$I$6-[34]Main!$I$5</f>
@@ -8920,7 +9082,7 @@
       </c>
       <c r="H39" s="16">
         <f>F39+G39</f>
-        <v>9498.0289999999986</v>
+        <v>10309.041499999999</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>436</v>
@@ -9210,10 +9372,10 @@
         <v>4225.2210813140009</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>436</v>
+        <v>149</v>
       </c>
       <c r="J44" s="15">
-        <v>45869</v>
+        <v>45958</v>
       </c>
       <c r="K44" s="16"/>
       <c r="M44" s="16"/>
@@ -9701,11 +9863,11 @@
       </c>
       <c r="E53" s="7">
         <f>+[48]Main!$I$2</f>
-        <v>97.25</v>
+        <v>96.12</v>
       </c>
       <c r="F53" s="16">
         <f>+[48]Main!$I$4</f>
-        <v>4786.0614999999998</v>
+        <v>4730.4496799999997</v>
       </c>
       <c r="G53" s="16">
         <f>+[48]Main!$I$6-[48]Main!$I$5</f>
@@ -9713,13 +9875,13 @@
       </c>
       <c r="H53" s="16">
         <f>F53+G53</f>
-        <v>4178.4925000000003</v>
+        <v>4122.8806800000002</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>338</v>
       </c>
       <c r="J53" s="15">
-        <v>45805</v>
+        <v>45896</v>
       </c>
       <c r="K53" s="16">
         <v>4280.7</v>
@@ -15238,17 +15400,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA7C47F-1AC4-4057-B9F0-395F82201EB4}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -15330,6 +15494,251 @@
       </c>
       <c r="E6" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>756</v>
+      </c>
+      <c r="F7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>758</v>
+      </c>
+      <c r="F8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E9" t="s">
+        <v>759</v>
+      </c>
+      <c r="F9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" t="s">
+        <v>764</v>
+      </c>
+      <c r="D10" t="s">
+        <v>765</v>
+      </c>
+      <c r="E10" t="s">
+        <v>759</v>
+      </c>
+      <c r="F10" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>768</v>
+      </c>
+      <c r="C11" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C12" t="s">
+        <v>772</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>774</v>
+      </c>
+      <c r="F12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>728</v>
+      </c>
+      <c r="C13" t="s">
+        <v>776</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C14" t="s">
+        <v>779</v>
+      </c>
+      <c r="D14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C15" t="s">
+        <v>781</v>
+      </c>
+      <c r="D15" t="s">
+        <v>782</v>
+      </c>
+      <c r="E15" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>785</v>
+      </c>
+      <c r="C16" t="s">
+        <v>786</v>
+      </c>
+      <c r="D16" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" t="s">
+        <v>791</v>
+      </c>
+      <c r="D17" t="s">
+        <v>792</v>
+      </c>
+      <c r="E17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>793</v>
+      </c>
+      <c r="C21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>797</v>
+      </c>
+      <c r="C23" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>799</v>
+      </c>
+      <c r="C24" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>802</v>
+      </c>
+      <c r="C26" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>804</v>
+      </c>
+      <c r="C27" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C28" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -15642,9 +16051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E0551-CB3F-4934-973D-CF415D563A72}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5016140-241B-477D-95C8-DE91858DFFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D12E3-08FD-4D96-8240-E5820D5EFC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3900" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="809">
   <si>
     <t>Fashion Universe</t>
   </si>
@@ -2560,6 +2560,9 @@
   </si>
   <si>
     <t>Former influencial people</t>
+  </si>
+  <si>
+    <t>FQ226</t>
   </si>
 </sst>
 </file>
@@ -3155,14 +3158,8 @@
             <v>1856195.55198455</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="I5"/>
-        </row>
-        <row r="6">
-          <cell r="I6"/>
-        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3223,26 +3220,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>292.68</v>
+            <v>279.45999999999998</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>18579.62025072</v>
+            <v>17630.198003599999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>857.8</v>
+            <v>371.09199999999998</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1713.5350000000001</v>
+            <v>1651.8770000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4144,17 +4141,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>133.4</v>
+            <v>139.75</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>151008.80000000002</v>
+            <v>157638</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>4255</v>
+            <v>4639</v>
           </cell>
         </row>
         <row r="7">
@@ -4163,9 +4160,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4579,12 +4576,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>626.5</v>
+            <v>471.6</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>113027.22837000001</v>
+            <v>85081.629528000005</v>
           </cell>
         </row>
         <row r="5">
@@ -4598,7 +4595,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4965,22 +4962,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>6.03</v>
+            <v>5.0599999999999996</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>2588.63076</v>
+            <v>2169.8306218600001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>501.36099999999999</v>
+            <v>910.98500000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>595.125</v>
+            <v>989.21399999999994</v>
           </cell>
         </row>
       </sheetData>
@@ -6448,11 +6445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBAEA3-CFE3-4821-A533-830373FE4419}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,15 +6613,15 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1775503.3090667739</v>
+        <v>1751700.8638858334</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
-        <v>19098.830205200011</v>
+        <v>19124.34520520001</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1794602.1392719739</v>
+        <v>1770825.2090910338</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6672,15 +6669,15 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>23058.484533334726</v>
+        <v>22749.361868647185</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
-        <v>248.03675591168846</v>
+        <v>248.36811954805208</v>
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>23306.521289246415</v>
+        <v>22997.729988195242</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -7074,25 +7071,25 @@
       </c>
       <c r="E9" s="7">
         <f>+[4]Main!$I$3</f>
-        <v>133.4</v>
+        <v>139.75</v>
       </c>
       <c r="F9" s="16">
         <f>+[4]Main!$I$5</f>
-        <v>151008.80000000002</v>
+        <v>157638</v>
       </c>
       <c r="G9" s="16">
         <f>+[4]Main!$I$7-[4]Main!$I$6</f>
-        <v>-1388</v>
+        <v>-1772</v>
       </c>
       <c r="H9" s="16">
         <f>F9+G9</f>
-        <v>149620.80000000002</v>
+        <v>155866</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="J9" s="15">
-        <v>45889</v>
+        <v>45980</v>
       </c>
       <c r="K9" s="7">
         <v>54217</v>
@@ -7166,11 +7163,11 @@
       </c>
       <c r="E10" s="7">
         <f>+[5]Main!$I$2</f>
-        <v>626.5</v>
+        <v>471.6</v>
       </c>
       <c r="F10" s="16">
         <f>+[5]Main!$I$4*FX!C3</f>
-        <v>117548.31750480001</v>
+        <v>88484.89470912001</v>
       </c>
       <c r="G10" s="16">
         <f>+([5]Main!$I$6-[5]Main!$I$5)*FX!C3</f>
@@ -7178,7 +7175,7 @@
       </c>
       <c r="H10" s="16">
         <f>F10+G10</f>
-        <v>131273.19750480002</v>
+        <v>102209.77470912001</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>338</v>
@@ -8152,25 +8149,25 @@
       </c>
       <c r="E24" s="7">
         <f>+[19]Main!$I$2</f>
-        <v>292.68</v>
+        <v>279.45999999999998</v>
       </c>
       <c r="F24" s="16">
         <f>+[19]Main!$I$4</f>
-        <v>18579.62025072</v>
+        <v>17630.198003599999</v>
       </c>
       <c r="G24" s="16">
         <f>+[19]Main!$I$6-[19]Main!$I$5</f>
-        <v>855.73500000000013</v>
+        <v>1280.7850000000003</v>
       </c>
       <c r="H24" s="16">
         <f>F24+G24</f>
-        <v>19435.35525072</v>
+        <v>18910.983003599998</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>148</v>
+        <v>721</v>
       </c>
       <c r="J24" s="15">
-        <v>45723</v>
+        <v>45897</v>
       </c>
       <c r="M24" s="16"/>
       <c r="Q24" s="18"/>
@@ -9029,7 +9026,7 @@
         <v>338</v>
       </c>
       <c r="J38" s="15">
-        <v>45778</v>
+        <v>45897</v>
       </c>
       <c r="K38" s="16"/>
       <c r="M38" s="16"/>
@@ -10487,19 +10484,19 @@
       </c>
       <c r="E64" s="7">
         <f>+[59]Main!$I$2</f>
-        <v>6.03</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F64" s="16">
         <f>+[59]Main!$I$4</f>
-        <v>2588.63076</v>
+        <v>2169.8306218600001</v>
       </c>
       <c r="G64" s="16">
         <f>+[59]Main!$I$6-[59]Main!$I$5</f>
-        <v>93.76400000000001</v>
+        <v>78.228999999999928</v>
       </c>
       <c r="H64" s="16">
         <f>+F64+G64</f>
-        <v>2682.3947600000001</v>
+        <v>2248.0596218599999</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>334</v>
@@ -16051,7 +16048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E0551-CB3F-4934-973D-CF415D563A72}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D12E3-08FD-4D96-8240-E5820D5EFC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3DCBE-46FA-4169-9CA9-43B0995BC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="813">
   <si>
     <t>Fashion Universe</t>
   </si>
@@ -2563,6 +2563,18 @@
   </si>
   <si>
     <t>FQ226</t>
+  </si>
+  <si>
+    <t>https://investors.guess.com/news-releases/news-release-details/guess-co-founders-maurice-and-paul-marciano-and-ceo-carlos</t>
+  </si>
+  <si>
+    <t>1.4 Billion USD</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>https://investors.skechers.com/press-releases/detail/665/skechers-agrees-to-be-acquired-by-3g-capital</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2702,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2777,6 +2789,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2850,17 +2865,19 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financials"/>
+      <sheetName val="Ratios"/>
+      <sheetName val="DCF"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>259.77</v>
+            <v>198.37</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>29803.264031099996</v>
+            <v>22758.8770291</v>
           </cell>
         </row>
         <row r="5">
@@ -2874,7 +2891,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3158,8 +3177,14 @@
             <v>1856195.55198455</v>
           </cell>
         </row>
+        <row r="5">
+          <cell r="I5"/>
+        </row>
+        <row r="6">
+          <cell r="I6"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3239,7 +3264,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4160,9 +4185,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4375,12 +4400,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>73.099999999999994</v>
+            <v>73.89</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>6707.1010247999993</v>
+            <v>6779.5854271200005</v>
           </cell>
         </row>
         <row r="5">
@@ -4394,7 +4419,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4595,7 +4620,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4981,7 +5006,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6446,10 +6471,10 @@
   <dimension ref="A1:AH212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6613,7 +6638,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="16">
         <f>SUM(F6:F153)</f>
-        <v>1751700.8638858334</v>
+        <v>1744728.9612861534</v>
       </c>
       <c r="G4" s="16">
         <f>+SUM(G6:G153)</f>
@@ -6621,7 +6646,7 @@
       </c>
       <c r="H4" s="16">
         <f>SUM(H6:H153)</f>
-        <v>1770825.2090910338</v>
+        <v>1763853.3064913535</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6669,7 +6694,7 @@
       <c r="E5"/>
       <c r="F5" s="16">
         <f>AVERAGE(F6:F153)</f>
-        <v>22749.361868647185</v>
+        <v>22658.817679040952</v>
       </c>
       <c r="G5" s="16">
         <f>AVERAGE(G6:G153)</f>
@@ -6677,7 +6702,7 @@
       </c>
       <c r="H5" s="16">
         <f>AVERAGE(H6:H153)</f>
-        <v>22997.729988195242</v>
+        <v>22907.185798589006</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -7545,11 +7570,11 @@
       </c>
       <c r="E15" s="7">
         <f>+[10]Main!$I$2</f>
-        <v>259.77</v>
+        <v>198.37</v>
       </c>
       <c r="F15" s="16">
         <f>+[10]Main!$I$4</f>
-        <v>29803.264031099996</v>
+        <v>22758.8770291</v>
       </c>
       <c r="G15" s="16">
         <f>+[10]Main!$I$6-[10]Main!$I$5</f>
@@ -7557,7 +7582,7 @@
       </c>
       <c r="H15" s="16">
         <f>F15+G15</f>
-        <v>28749.068031099996</v>
+        <v>21704.6810291</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>436</v>
@@ -9490,7 +9515,7 @@
         <v>424</v>
       </c>
       <c r="J46" s="15">
-        <v>45807</v>
+        <v>45896</v>
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -9688,11 +9713,11 @@
       </c>
       <c r="E50" s="7">
         <f>+[45]Main!$J$2</f>
-        <v>73.099999999999994</v>
+        <v>73.89</v>
       </c>
       <c r="F50" s="16">
         <f>+[45]Main!$J$4</f>
-        <v>6707.1010247999993</v>
+        <v>6779.5854271200005</v>
       </c>
       <c r="G50" s="16">
         <f>+[45]Main!$J$6-[45]Main!$J$5</f>
@@ -9700,13 +9725,13 @@
       </c>
       <c r="H50" s="16">
         <f>+F50+G50</f>
-        <v>6232.0830247999993</v>
+        <v>6304.5674271200005</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>721</v>
       </c>
       <c r="J50" s="15">
-        <v>45889</v>
+        <v>45896</v>
       </c>
       <c r="K50" s="16"/>
       <c r="M50" s="16"/>
@@ -17465,8 +17490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2AF2D-0F5F-41CB-A4FA-60433C4DB52C}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18661,25 +18686,374 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2BB318-5BA2-4BBA-A200-FE3B9D2C3D73}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:W3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>+A4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A51" si="0">+A5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DCE93B03-73FA-4BC2-A7B7-DEE1CD9A6ACE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3101EC5-F720-4AB1-9031-7261BEEF1FBA}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18688,508 +19062,526 @@
     <col min="2" max="2" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>586</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>587</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f>+A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" t="s">
-        <v>589</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A48" si="0">+A4+1</f>
-        <v>3</v>
+        <f>+A4+1</f>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" ref="A6:A49" si="0">+A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>592</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>593</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>594</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>595</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>596</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>597</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>598</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>599</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>600</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>601</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>602</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>603</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>604</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>605</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>606</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>607</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>608</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>609</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>610</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>611</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>612</v>
-      </c>
-      <c r="C16" t="s">
-        <v>613</v>
-      </c>
-      <c r="D16" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D17" t="s">
-        <v>675</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D20" t="s">
-        <v>676</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>620</v>
+      </c>
+      <c r="C21" t="s">
+        <v>621</v>
+      </c>
+      <c r="D21" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C22" t="s">
-        <v>624</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D23" t="s">
-        <v>533</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C24" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
-        <v>677</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C26" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C27" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C29" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D31" t="s">
-        <v>678</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C34" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C35" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -19198,28 +19590,28 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D36" t="s">
-        <v>677</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C37" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D37" t="s">
         <v>677</v>
@@ -19228,58 +19620,58 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C39" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C41" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -19288,73 +19680,73 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C42" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D42" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C44" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D44" t="s">
-        <v>677</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C46" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -19363,13 +19755,13 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C47" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -19377,6 +19769,21 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>673</v>
+      </c>
+      <c r="C48" t="s">
+        <v>674</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -19620,10 +20027,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B358B9-0FBA-4749-BEFA-4DF05274EAFA}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19640,25 +20047,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="44" t="s">
+        <v>811</v>
+      </c>
+      <c r="H2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -19673,7 +20082,10 @@
       <c r="E3" s="41">
         <v>45757</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="43">
         <v>1250</v>
       </c>
     </row>
@@ -19693,6 +20105,12 @@
       <c r="F4" s="10" t="s">
         <v>736</v>
       </c>
+      <c r="G4" s="42">
+        <v>9420</v>
+      </c>
+      <c r="H4" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -19707,7 +20125,10 @@
       <c r="E5" s="41">
         <v>45637</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="42">
         <v>1100</v>
       </c>
     </row>
@@ -19715,8 +20136,34 @@
       <c r="B6" t="s">
         <v>740</v>
       </c>
+      <c r="C6" t="s">
+        <v>740</v>
+      </c>
       <c r="D6" t="s">
         <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="41">
+        <v>45889</v>
+      </c>
+      <c r="F7">
+        <v>16.75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>810</v>
+      </c>
+      <c r="H7" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -19724,6 +20171,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{996B57F6-8038-47F6-A248-0F268F1ACEFB}"/>
     <hyperlink ref="C4" r:id="rId1" display="SKX" xr:uid="{8E2CF5BB-29AF-4437-8F96-D294155BB64C}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{2A12F8E0-FB6F-4E0D-B2A9-CED87F005A2E}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{198927E1-7FEB-4804-8A3B-9B9BC35A8F85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fashion.xlsx
+++ b/Fashion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3DCBE-46FA-4169-9CA9-43B0995BC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39A015E-A184-430F-B1D0-65F89D35B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E4FC37F3-4088-4285-9A96-75C9B19F2D05}"/>
   </bookViews>
@@ -2891,9 +2891,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4117,6 +4117,7 @@
       <sheetName val="Ratios"/>
       <sheetName val="Coc"/>
       <sheetName val="DCF"/>
+      <sheetName val="Data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4141,10 +4142,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4419,7 +4421,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6471,10 +6473,10 @@
   <dimension ref="A1:AH212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
